--- a/개발문서/기능정의서.xlsx
+++ b/개발문서/기능정의서.xlsx
@@ -1,33 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kopo\Open-Banking-DB-Project\개발문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C254490B-365F-4E28-8390-811E7B6E0EAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66CE096B-1679-4911-8793-33FF2B5C63B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20835" yWindow="4425" windowWidth="18975" windowHeight="585" tabRatio="706" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19425" yWindow="4425" windowWidth="18975" windowHeight="585" tabRatio="706" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="문서이력관리" sheetId="3" r:id="rId1"/>
-    <sheet name="기능정의서_v최종" sheetId="16" r:id="rId2"/>
-    <sheet name="기능개요" sheetId="17" r:id="rId3"/>
-    <sheet name="데이터베이스" sheetId="18" r:id="rId4"/>
+    <sheet name="메뉴" sheetId="21" r:id="rId1"/>
+    <sheet name="테스트" sheetId="20" r:id="rId2"/>
+    <sheet name="문서이력관리" sheetId="3" r:id="rId3"/>
+    <sheet name="기능정의서_v최종" sheetId="16" r:id="rId4"/>
+    <sheet name="기능개요" sheetId="17" r:id="rId5"/>
+    <sheet name="데이터베이스" sheetId="18" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">기능정의서_v최종!$A$1:$F$51</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">문서이력관리!$A$1:$E$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">기능정의서_v최종!$A$1:$F$51</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">문서이력관리!$A$1:$E$37</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="243">
   <si>
     <t>Category</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -871,10 +873,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>계좌 변경</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>출금 거래한도에 한해서만 출금 가능하다</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -924,10 +922,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>고객번호 (FK)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -972,22 +966,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>입금 계좌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>계좌 거래 내역 테이블</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>거래액</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>출금계좌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>유형</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1032,71 +1014,305 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;거래 내역&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>타행이체</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>&lt;하나은행&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계좌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>은행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>순서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오픈뱅킹 일련번호(PK)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>은행코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하나은행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>국민은행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기업은행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리은행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신한은행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>타행송금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>타행송금(은행이름)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>계좌 일련번호 (PK)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>계좌번호 (UK)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;하나은행&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>입금 은행</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;통합 테이블&gt; -&gt; NONO -&gt; API로 타은행 정보 받아오는 것임</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>출금 은행</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;오픈뱅킹&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>고객</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>계좌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신청일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>은행</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>순서</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>오픈뱅킹 일련번호(PK)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t/>
+  </si>
+  <si>
+    <t>은행 거래내역 표기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개좌 개설 내역 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주민번호 (PK)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주민번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계좌 PW</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;금융 공통&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개설일자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오픈뱅킹 PW</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오픈뱅킹 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객 일련번호 (FK)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계좌번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주민번호로 자동 판별 가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수수료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 계좌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입금된 계좌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>출금된 계좌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>타행 이체</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른 계좌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>타행 송금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계좌번호(FK)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래유형(FK)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>성공여부(FK)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입금/출금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입출금 거래 내역 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">일반회원 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>디폴트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>금액 입력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이체할 계좌 입력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계좌 입력(통장 INPUT)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이체</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>금액입력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(계좌 개수만큼 번호 선택)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계좌 리스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른 계좌 선택</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">거래 내역 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록 계좌 잔액</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(가입)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(미가입)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오픈 뱅킹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계좌관리</t>
+  </si>
+  <si>
+    <t>회원관리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자주 쓰는 계좌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(로그인 성공)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pw 일치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id 일치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주민 번호로 정보 불러오기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id중복체크</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>온라인 뱅킹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>온라인뱅킹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인으로</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뒤로가기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEPTH</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1105,9 +1321,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="#,##0.0_);\(#,##0.0\)"/>
-    <numFmt numFmtId="182" formatCode="000"/>
+    <numFmt numFmtId="177" formatCode="000"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="돋움"/>
@@ -1235,8 +1451,15 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1297,6 +1520,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="59">
     <border>
@@ -2050,12 +2279,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -2065,7 +2294,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2272,6 +2501,48 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2352,43 +2623,16 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2729,6 +2973,709 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E6FBF4-BB9C-4D09-B0C6-06E00A0A13FF}">
+  <dimension ref="C2:R46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="4" width="4.33203125" customWidth="1"/>
+    <col min="5" max="5" width="4.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" customWidth="1"/>
+    <col min="7" max="8" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" customWidth="1"/>
+    <col min="11" max="11" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="E2" t="s">
+        <v>242</v>
+      </c>
+      <c r="K2" t="s">
+        <v>211</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2">
+        <v>3</v>
+      </c>
+      <c r="O2">
+        <v>4</v>
+      </c>
+      <c r="P2">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>240</v>
+      </c>
+      <c r="R2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="3" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>209</v>
+      </c>
+      <c r="K3" t="s">
+        <v>212</v>
+      </c>
+      <c r="L3" t="s">
+        <v>238</v>
+      </c>
+      <c r="M3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>237</v>
+      </c>
+      <c r="K5" t="s">
+        <v>212</v>
+      </c>
+      <c r="L5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="G7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="G8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="H9" t="s">
+        <v>231</v>
+      </c>
+      <c r="K9" t="s">
+        <v>230</v>
+      </c>
+      <c r="L9" t="s">
+        <v>228</v>
+      </c>
+      <c r="M9" t="s">
+        <v>227</v>
+      </c>
+      <c r="N9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="11" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="H11" t="s">
+        <v>228</v>
+      </c>
+      <c r="L11" t="s">
+        <v>86</v>
+      </c>
+      <c r="M11" t="s">
+        <v>131</v>
+      </c>
+      <c r="N11" t="s">
+        <v>83</v>
+      </c>
+      <c r="O11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="I13" t="s">
+        <v>86</v>
+      </c>
+      <c r="K13" t="s">
+        <v>221</v>
+      </c>
+      <c r="L13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="14" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="L14" t="s">
+        <v>223</v>
+      </c>
+      <c r="M14" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="16" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="I16" t="s">
+        <v>131</v>
+      </c>
+      <c r="K16" t="s">
+        <v>221</v>
+      </c>
+      <c r="L16" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="18" spans="8:15" x14ac:dyDescent="0.15">
+      <c r="I18" t="s">
+        <v>83</v>
+      </c>
+      <c r="K18" t="s">
+        <v>221</v>
+      </c>
+      <c r="L18" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="20" spans="8:15" x14ac:dyDescent="0.15">
+      <c r="I20" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="8:15" x14ac:dyDescent="0.15">
+      <c r="H22" t="s">
+        <v>227</v>
+      </c>
+      <c r="I22" t="s">
+        <v>226</v>
+      </c>
+      <c r="L22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="8:15" x14ac:dyDescent="0.15">
+      <c r="I24" t="s">
+        <v>225</v>
+      </c>
+      <c r="K24" t="s">
+        <v>224</v>
+      </c>
+      <c r="L24" t="s">
+        <v>86</v>
+      </c>
+      <c r="M24" t="s">
+        <v>84</v>
+      </c>
+      <c r="N24" t="s">
+        <v>83</v>
+      </c>
+      <c r="O24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="8:15" x14ac:dyDescent="0.15">
+      <c r="I26" t="s">
+        <v>86</v>
+      </c>
+      <c r="K26" t="s">
+        <v>221</v>
+      </c>
+      <c r="L26" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="27" spans="8:15" x14ac:dyDescent="0.15">
+      <c r="L27" t="s">
+        <v>223</v>
+      </c>
+      <c r="M27" t="s">
+        <v>216</v>
+      </c>
+      <c r="N27" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="29" spans="8:15" x14ac:dyDescent="0.15">
+      <c r="I29" t="s">
+        <v>85</v>
+      </c>
+      <c r="K29" t="s">
+        <v>221</v>
+      </c>
+      <c r="L29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="31" spans="8:15" x14ac:dyDescent="0.15">
+      <c r="I31" t="s">
+        <v>83</v>
+      </c>
+      <c r="K31" t="s">
+        <v>221</v>
+      </c>
+      <c r="L31" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="33" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="I33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="H34" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="36" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="F36" t="s">
+        <v>218</v>
+      </c>
+      <c r="K36" t="s">
+        <v>212</v>
+      </c>
+      <c r="L36" t="s">
+        <v>215</v>
+      </c>
+      <c r="M36" t="s">
+        <v>90</v>
+      </c>
+      <c r="N36" t="s">
+        <v>91</v>
+      </c>
+      <c r="O36" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="38" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="G38" t="s">
+        <v>90</v>
+      </c>
+      <c r="L38" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="39" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="L39" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="41" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="G41" t="s">
+        <v>91</v>
+      </c>
+      <c r="L41" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="42" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="L42" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="44" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="G44" t="s">
+        <v>216</v>
+      </c>
+      <c r="L44" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="45" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="L45" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="46" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="L46" t="s">
+        <v>213</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8026384-AD76-4A8C-9119-D0FEDF7DAF54}">
+  <dimension ref="C2:S55"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18:O18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="4" width="4.33203125" customWidth="1"/>
+    <col min="5" max="5" width="4.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" customWidth="1"/>
+    <col min="7" max="8" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1"/>
+    <col min="10" max="11" width="8.6640625" customWidth="1"/>
+    <col min="12" max="12" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:19" x14ac:dyDescent="0.15">
+      <c r="E2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" t="s">
+        <v>241</v>
+      </c>
+      <c r="L2" t="s">
+        <v>211</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>2</v>
+      </c>
+      <c r="O2">
+        <v>3</v>
+      </c>
+      <c r="P2">
+        <v>4</v>
+      </c>
+      <c r="Q2">
+        <v>5</v>
+      </c>
+      <c r="R2" t="s">
+        <v>240</v>
+      </c>
+      <c r="S2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="3" spans="3:19" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>209</v>
+      </c>
+      <c r="L3" t="s">
+        <v>212</v>
+      </c>
+      <c r="M3" t="s">
+        <v>238</v>
+      </c>
+      <c r="N3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" spans="3:19" x14ac:dyDescent="0.15">
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>237</v>
+      </c>
+      <c r="L5" t="s">
+        <v>212</v>
+      </c>
+      <c r="M5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="3:19" x14ac:dyDescent="0.15">
+      <c r="G7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="8" spans="3:19" x14ac:dyDescent="0.15">
+      <c r="J8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="14" spans="3:19" x14ac:dyDescent="0.15">
+      <c r="G14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" t="s">
+        <v>234</v>
+      </c>
+      <c r="K14" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="15" spans="3:19" x14ac:dyDescent="0.15">
+      <c r="J15" t="s">
+        <v>233</v>
+      </c>
+      <c r="K15" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="18" spans="8:16" x14ac:dyDescent="0.15">
+      <c r="H18" t="s">
+        <v>231</v>
+      </c>
+      <c r="L18" t="s">
+        <v>230</v>
+      </c>
+      <c r="M18" t="s">
+        <v>228</v>
+      </c>
+      <c r="N18" t="s">
+        <v>227</v>
+      </c>
+      <c r="O18" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="20" spans="8:16" x14ac:dyDescent="0.15">
+      <c r="H20" t="s">
+        <v>228</v>
+      </c>
+      <c r="M20" t="s">
+        <v>86</v>
+      </c>
+      <c r="N20" t="s">
+        <v>131</v>
+      </c>
+      <c r="O20" t="s">
+        <v>83</v>
+      </c>
+      <c r="P20" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="8:16" x14ac:dyDescent="0.15">
+      <c r="I22" t="s">
+        <v>86</v>
+      </c>
+      <c r="L22" t="s">
+        <v>221</v>
+      </c>
+      <c r="M22" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="23" spans="8:16" x14ac:dyDescent="0.15">
+      <c r="M23" t="s">
+        <v>223</v>
+      </c>
+      <c r="N23" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="25" spans="8:16" x14ac:dyDescent="0.15">
+      <c r="I25" t="s">
+        <v>131</v>
+      </c>
+      <c r="L25" t="s">
+        <v>221</v>
+      </c>
+      <c r="M25" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="27" spans="8:16" x14ac:dyDescent="0.15">
+      <c r="I27" t="s">
+        <v>83</v>
+      </c>
+      <c r="L27" t="s">
+        <v>221</v>
+      </c>
+      <c r="M27" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="29" spans="8:16" x14ac:dyDescent="0.15">
+      <c r="I29" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="8:16" x14ac:dyDescent="0.15">
+      <c r="H31" t="s">
+        <v>227</v>
+      </c>
+      <c r="I31" t="s">
+        <v>226</v>
+      </c>
+      <c r="M31" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="4:16" x14ac:dyDescent="0.15">
+      <c r="I33" t="s">
+        <v>225</v>
+      </c>
+      <c r="L33" t="s">
+        <v>224</v>
+      </c>
+      <c r="M33" t="s">
+        <v>86</v>
+      </c>
+      <c r="N33" t="s">
+        <v>84</v>
+      </c>
+      <c r="O33" t="s">
+        <v>83</v>
+      </c>
+      <c r="P33" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="4:16" x14ac:dyDescent="0.15">
+      <c r="I35" t="s">
+        <v>86</v>
+      </c>
+      <c r="L35" t="s">
+        <v>221</v>
+      </c>
+      <c r="M35" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="36" spans="4:16" x14ac:dyDescent="0.15">
+      <c r="M36" t="s">
+        <v>223</v>
+      </c>
+      <c r="N36" t="s">
+        <v>216</v>
+      </c>
+      <c r="O36" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="38" spans="4:16" x14ac:dyDescent="0.15">
+      <c r="I38" t="s">
+        <v>85</v>
+      </c>
+      <c r="L38" t="s">
+        <v>221</v>
+      </c>
+      <c r="M38" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="40" spans="4:16" x14ac:dyDescent="0.15">
+      <c r="I40" t="s">
+        <v>83</v>
+      </c>
+      <c r="L40" t="s">
+        <v>221</v>
+      </c>
+      <c r="M40" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="42" spans="4:16" x14ac:dyDescent="0.15">
+      <c r="I42" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="4:16" x14ac:dyDescent="0.15">
+      <c r="H43" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="45" spans="4:16" x14ac:dyDescent="0.15">
+      <c r="D45">
+        <v>3</v>
+      </c>
+      <c r="F45" t="s">
+        <v>218</v>
+      </c>
+      <c r="L45" t="s">
+        <v>212</v>
+      </c>
+      <c r="M45" t="s">
+        <v>215</v>
+      </c>
+      <c r="N45" t="s">
+        <v>90</v>
+      </c>
+      <c r="O45" t="s">
+        <v>91</v>
+      </c>
+      <c r="P45" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="47" spans="4:16" x14ac:dyDescent="0.15">
+      <c r="G47" t="s">
+        <v>90</v>
+      </c>
+      <c r="M47" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="48" spans="4:16" x14ac:dyDescent="0.15">
+      <c r="M48" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="50" spans="7:13" x14ac:dyDescent="0.15">
+      <c r="G50" t="s">
+        <v>91</v>
+      </c>
+      <c r="M50" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="51" spans="7:13" x14ac:dyDescent="0.15">
+      <c r="M51" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="53" spans="7:13" x14ac:dyDescent="0.15">
+      <c r="G53" t="s">
+        <v>216</v>
+      </c>
+      <c r="M53" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="54" spans="7:13" x14ac:dyDescent="0.15">
+      <c r="M54" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="55" spans="7:13" x14ac:dyDescent="0.15">
+      <c r="M55" t="s">
+        <v>213</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
@@ -2753,12 +3700,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88"/>
     </row>
     <row r="3" spans="2:5" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2922,7 +3869,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
@@ -2949,14 +3896,14 @@
     </row>
     <row r="2" spans="1:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="77"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="91"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5"/>
@@ -2966,12 +3913,12 @@
       <c r="C3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="78" t="s">
+      <c r="D3" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="80"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="94"/>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
@@ -2981,12 +3928,12 @@
       <c r="C4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="81">
+      <c r="D4" s="95">
         <v>44321</v>
       </c>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="83"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="97"/>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
@@ -2999,16 +3946,16 @@
     </row>
     <row r="6" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5"/>
-      <c r="B6" s="91" t="s">
+      <c r="B6" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="89" t="s">
+      <c r="C6" s="106"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="93" t="s">
+      <c r="G6" s="107" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3026,8 +3973,8 @@
       <c r="E7" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="F7" s="90"/>
-      <c r="G7" s="94"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="108"/>
     </row>
     <row r="8" spans="1:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5"/>
@@ -3070,7 +4017,7 @@
       <c r="B10" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="87" t="s">
+      <c r="C10" s="101" t="s">
         <v>52</v>
       </c>
       <c r="D10" s="65" t="s">
@@ -3087,7 +4034,7 @@
     <row r="11" spans="1:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5"/>
       <c r="B11" s="39"/>
-      <c r="C11" s="88"/>
+      <c r="C11" s="102"/>
       <c r="D11" s="66" t="s">
         <v>46</v>
       </c>
@@ -3102,7 +4049,7 @@
     <row r="12" spans="1:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5"/>
       <c r="B12" s="39"/>
-      <c r="C12" s="95" t="s">
+      <c r="C12" s="109" t="s">
         <v>55</v>
       </c>
       <c r="D12" s="63" t="s">
@@ -3117,7 +4064,7 @@
     <row r="13" spans="1:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5"/>
       <c r="B13" s="39"/>
-      <c r="C13" s="96"/>
+      <c r="C13" s="110"/>
       <c r="D13" s="63" t="s">
         <v>53</v>
       </c>
@@ -3132,7 +4079,7 @@
     <row r="14" spans="1:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5"/>
       <c r="B14" s="39"/>
-      <c r="C14" s="97"/>
+      <c r="C14" s="111"/>
       <c r="D14" s="63" t="s">
         <v>49</v>
       </c>
@@ -3145,7 +4092,7 @@
     <row r="15" spans="1:8" ht="42" x14ac:dyDescent="0.15">
       <c r="A15" s="5"/>
       <c r="B15" s="39"/>
-      <c r="C15" s="84" t="s">
+      <c r="C15" s="98" t="s">
         <v>25</v>
       </c>
       <c r="D15" s="64" t="s">
@@ -3164,7 +4111,7 @@
     <row r="16" spans="1:8" ht="21.75" x14ac:dyDescent="0.15">
       <c r="A16" s="5"/>
       <c r="B16" s="39"/>
-      <c r="C16" s="85"/>
+      <c r="C16" s="99"/>
       <c r="D16" s="64" t="s">
         <v>33</v>
       </c>
@@ -3181,7 +4128,7 @@
     <row r="17" spans="1:7" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="39"/>
-      <c r="C17" s="86"/>
+      <c r="C17" s="100"/>
       <c r="D17" s="64" t="s">
         <v>24</v>
       </c>
@@ -3200,7 +4147,7 @@
       <c r="B18" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="87" t="s">
+      <c r="C18" s="101" t="s">
         <v>56</v>
       </c>
       <c r="D18" s="65" t="s">
@@ -3217,7 +4164,7 @@
     <row r="19" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="5"/>
       <c r="B19" s="39"/>
-      <c r="C19" s="88"/>
+      <c r="C19" s="102"/>
       <c r="D19" s="66" t="s">
         <v>46</v>
       </c>
@@ -3232,7 +4179,7 @@
     <row r="20" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="5"/>
       <c r="B20" s="39"/>
-      <c r="C20" s="95" t="s">
+      <c r="C20" s="109" t="s">
         <v>55</v>
       </c>
       <c r="D20" s="63" t="s">
@@ -3247,7 +4194,7 @@
     <row r="21" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5"/>
       <c r="B21" s="39"/>
-      <c r="C21" s="96"/>
+      <c r="C21" s="110"/>
       <c r="D21" s="63" t="s">
         <v>53</v>
       </c>
@@ -3260,7 +4207,7 @@
     <row r="22" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5"/>
       <c r="B22" s="39"/>
-      <c r="C22" s="97"/>
+      <c r="C22" s="111"/>
       <c r="D22" s="63" t="s">
         <v>49</v>
       </c>
@@ -3273,7 +4220,7 @@
     <row r="23" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="5"/>
       <c r="B23" s="39"/>
-      <c r="C23" s="95" t="s">
+      <c r="C23" s="109" t="s">
         <v>64</v>
       </c>
       <c r="D23" s="63" t="s">
@@ -3288,7 +4235,7 @@
     <row r="24" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="5"/>
       <c r="B24" s="39"/>
-      <c r="C24" s="96"/>
+      <c r="C24" s="110"/>
       <c r="D24" s="63" t="s">
         <v>69</v>
       </c>
@@ -3301,7 +4248,7 @@
     <row r="25" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="5"/>
       <c r="B25" s="39"/>
-      <c r="C25" s="97"/>
+      <c r="C25" s="111"/>
       <c r="D25" s="63" t="s">
         <v>67</v>
       </c>
@@ -3314,7 +4261,7 @@
     <row r="26" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="5"/>
       <c r="B26" s="39"/>
-      <c r="C26" s="95" t="s">
+      <c r="C26" s="109" t="s">
         <v>65</v>
       </c>
       <c r="D26" s="63" t="s">
@@ -3329,7 +4276,7 @@
     <row r="27" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="5"/>
       <c r="B27" s="39"/>
-      <c r="C27" s="96"/>
+      <c r="C27" s="110"/>
       <c r="D27" s="63" t="s">
         <v>70</v>
       </c>
@@ -3344,7 +4291,7 @@
     <row r="28" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
       <c r="B28" s="39"/>
-      <c r="C28" s="97"/>
+      <c r="C28" s="111"/>
       <c r="D28" s="63" t="s">
         <v>67</v>
       </c>
@@ -3357,7 +4304,7 @@
     <row r="29" spans="1:7" ht="21" x14ac:dyDescent="0.15">
       <c r="A29" s="5"/>
       <c r="B29" s="38"/>
-      <c r="C29" s="84" t="s">
+      <c r="C29" s="98" t="s">
         <v>29</v>
       </c>
       <c r="D29" s="68" t="s">
@@ -3374,7 +4321,7 @@
     <row r="30" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="5"/>
       <c r="B30" s="38"/>
-      <c r="C30" s="85"/>
+      <c r="C30" s="99"/>
       <c r="D30" s="68" t="s">
         <v>59</v>
       </c>
@@ -3391,7 +4338,7 @@
     <row r="31" spans="1:7" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A31" s="5"/>
       <c r="B31" s="38"/>
-      <c r="C31" s="85"/>
+      <c r="C31" s="99"/>
       <c r="D31" s="68" t="s">
         <v>30</v>
       </c>
@@ -3408,7 +4355,7 @@
     <row r="32" spans="1:7" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="41"/>
-      <c r="C32" s="86"/>
+      <c r="C32" s="100"/>
       <c r="D32" s="69" t="s">
         <v>31</v>
       </c>
@@ -3518,12 +4465,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACEBC18A-9F4C-4819-A11D-9F775E0B32F3}">
   <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3544,10 +4491,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="F1" s="89" t="s">
+      <c r="F1" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="93" t="s">
+      <c r="G1" s="107" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3567,8 +4514,8 @@
       <c r="E2" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="F2" s="90"/>
-      <c r="G2" s="94"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="108"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
@@ -3584,8 +4531,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A6" s="98" t="s">
-        <v>134</v>
+      <c r="A6" s="72" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
@@ -3611,7 +4558,7 @@
         <v>129</v>
       </c>
       <c r="C13" t="s">
-        <v>130</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -3621,12 +4568,12 @@
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C17" t="s">
-        <v>132</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C19" t="s">
-        <v>84</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.15">
@@ -3646,17 +4593,17 @@
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C29" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.15">
@@ -3756,7 +4703,7 @@
         <v>108</v>
       </c>
       <c r="G54" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="57" spans="3:7" x14ac:dyDescent="0.15">
@@ -3785,7 +4732,7 @@
     </row>
     <row r="60" spans="3:7" x14ac:dyDescent="0.15">
       <c r="G60" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="62" spans="3:7" x14ac:dyDescent="0.15">
@@ -3806,11 +4753,11 @@
     </row>
     <row r="64" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C64" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A67" s="98" t="s">
+      <c r="A67" s="72" t="s">
         <v>124</v>
       </c>
       <c r="B67" t="s">
@@ -3851,7 +4798,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B77" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -3865,12 +4812,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0648187D-EAEA-479B-9030-8E45E6D42BC8}">
-  <dimension ref="A1:L59"/>
+  <dimension ref="A1:P69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3878,613 +4825,886 @@
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.88671875" customWidth="1"/>
-    <col min="12" max="12" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.77734375" customWidth="1"/>
+    <col min="8" max="9" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5546875" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" customWidth="1"/>
+    <col min="13" max="13" width="15.77734375" customWidth="1"/>
+    <col min="14" max="14" width="16.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="84" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A3" s="73" t="s">
+        <v>186</v>
+      </c>
+      <c r="B3" s="73" t="s">
+        <v>194</v>
+      </c>
+      <c r="C3" s="73" t="s">
+        <v>176</v>
+      </c>
+      <c r="D3" s="74" t="s">
+        <v>190</v>
+      </c>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A4" s="73"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A5" s="75"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+    </row>
+    <row r="6" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="85" t="s">
+        <v>168</v>
+      </c>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F7" s="112" t="s">
+        <v>195</v>
+      </c>
+      <c r="G7" s="112"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A8" s="73" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8" s="73" t="s">
+        <v>187</v>
+      </c>
+      <c r="C8" s="73" t="s">
+        <v>150</v>
+      </c>
+      <c r="D8" s="73" t="s">
+        <v>147</v>
+      </c>
+      <c r="E8" s="73" t="s">
+        <v>144</v>
+      </c>
+      <c r="F8" s="73" t="s">
+        <v>145</v>
+      </c>
+      <c r="G8" s="73" t="s">
+        <v>146</v>
+      </c>
+      <c r="H8" s="73" t="s">
+        <v>148</v>
+      </c>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A9" s="73"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A10" s="75"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>139</v>
+      </c>
+      <c r="I11" s="75"/>
+      <c r="J11" s="75"/>
+      <c r="L11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A12" s="73" t="s">
+        <v>160</v>
+      </c>
+      <c r="B12" s="73" t="s">
+        <v>193</v>
+      </c>
+      <c r="C12" s="73" t="s">
+        <v>188</v>
+      </c>
+      <c r="D12" s="73" t="s">
+        <v>176</v>
+      </c>
+      <c r="E12" s="73" t="s">
+        <v>141</v>
+      </c>
+      <c r="F12" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="G12" s="73" t="s">
+        <v>143</v>
+      </c>
+      <c r="H12" s="74" t="s">
+        <v>152</v>
+      </c>
+      <c r="I12" s="74" t="s">
+        <v>153</v>
+      </c>
+      <c r="J12" s="76"/>
+      <c r="K12" s="75"/>
+      <c r="L12" s="80" t="s">
+        <v>176</v>
+      </c>
+      <c r="M12" s="80" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A13" s="73"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="75"/>
+      <c r="L13" s="79">
+        <v>0</v>
+      </c>
+      <c r="M13" s="77" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="I14" s="75"/>
+      <c r="J14" s="75"/>
+      <c r="L14" s="79">
+        <v>1</v>
+      </c>
+      <c r="M14" s="77" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="I15" s="75"/>
+      <c r="J15" s="75"/>
+      <c r="L15" s="79">
+        <v>2</v>
+      </c>
+      <c r="M15" s="77" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="101"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="101"/>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="102" t="s">
-        <v>177</v>
-      </c>
-      <c r="B4" s="101"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="102"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="101"/>
-      <c r="B5" s="101"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="101"/>
-      <c r="H5" s="102"/>
-      <c r="I5" s="102"/>
-      <c r="J5" s="102"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="99" t="s">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="I16" s="75"/>
+      <c r="J16" s="75"/>
+      <c r="L16" s="79">
+        <v>3</v>
+      </c>
+      <c r="M16" s="82" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="L17" s="79">
+        <v>4</v>
+      </c>
+      <c r="M17" s="82" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A19" s="75"/>
+      <c r="B19" s="75"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C20" s="83" t="s">
         <v>175</v>
       </c>
-      <c r="B7" s="99" t="s">
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A22" s="73" t="s">
+        <v>174</v>
+      </c>
+      <c r="B22" s="73" t="s">
+        <v>169</v>
+      </c>
+      <c r="C22" s="73" t="s">
+        <v>172</v>
+      </c>
+      <c r="D22" s="73" t="s">
+        <v>170</v>
+      </c>
+      <c r="E22" s="73" t="s">
+        <v>171</v>
+      </c>
+      <c r="F22" s="74" t="s">
+        <v>191</v>
+      </c>
+      <c r="G22" s="73" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A23" s="73"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A28" s="73" t="s">
+        <v>157</v>
+      </c>
+      <c r="B28" s="73" t="s">
+        <v>154</v>
+      </c>
+      <c r="C28" s="73" t="s">
+        <v>204</v>
+      </c>
+      <c r="D28" s="73" t="s">
+        <v>155</v>
+      </c>
+      <c r="E28" s="74" t="s">
+        <v>205</v>
+      </c>
+      <c r="F28" s="74" t="s">
+        <v>206</v>
+      </c>
+      <c r="G28" s="76"/>
+      <c r="H28" s="75"/>
+      <c r="I28" s="76"/>
+      <c r="J28" s="76"/>
+      <c r="L28" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A29" s="73"/>
+      <c r="B29" s="73"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="75"/>
+      <c r="J29" s="75"/>
+      <c r="L29" s="80" t="s">
+        <v>158</v>
+      </c>
+      <c r="M29" s="80" t="s">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="L30" s="79">
+        <v>0</v>
+      </c>
+      <c r="M30" s="77" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="L31" s="79">
+        <v>1</v>
+      </c>
+      <c r="M31" s="77" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="L32" s="79">
+        <v>2</v>
+      </c>
+      <c r="M32" s="77" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A33" s="114" t="s">
+        <v>207</v>
+      </c>
+      <c r="K33" s="81"/>
+      <c r="L33" s="79">
+        <v>3</v>
+      </c>
+      <c r="M33" s="82" t="s">
+        <v>182</v>
+      </c>
+      <c r="N33" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A34" s="113" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" s="75"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="113" t="s">
+        <v>91</v>
+      </c>
+      <c r="E34" s="75"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="75"/>
+      <c r="H34" s="75"/>
+      <c r="K34" s="81"/>
+      <c r="L34" s="75"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>198</v>
+      </c>
+      <c r="B35" t="s">
+        <v>199</v>
+      </c>
+      <c r="C35" s="75"/>
+      <c r="D35" t="s">
+        <v>198</v>
+      </c>
+      <c r="E35" t="s">
+        <v>199</v>
+      </c>
+      <c r="F35" s="76"/>
+      <c r="G35" s="75"/>
+      <c r="H35" s="75"/>
+      <c r="K35" s="75"/>
+      <c r="L35" s="75"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A36" s="75" t="s">
+        <v>197</v>
+      </c>
+      <c r="B36" s="75" t="s">
+        <v>200</v>
+      </c>
+      <c r="C36" s="75"/>
+      <c r="D36" s="75" t="s">
+        <v>200</v>
+      </c>
+      <c r="E36" s="75" t="s">
+        <v>197</v>
+      </c>
+      <c r="F36" s="75"/>
+      <c r="G36" s="75"/>
+      <c r="H36" s="75"/>
+      <c r="L36" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="F37" s="75"/>
+      <c r="G37" s="75"/>
+      <c r="H37" s="75"/>
+      <c r="L37" s="80" t="s">
+        <v>156</v>
+      </c>
+      <c r="M37" s="80" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A38" s="75"/>
+      <c r="B38" s="75"/>
+      <c r="C38" s="75"/>
+      <c r="D38" s="75"/>
+      <c r="E38" s="75"/>
+      <c r="F38" s="75"/>
+      <c r="G38" s="75"/>
+      <c r="H38" s="75"/>
+      <c r="L38" s="79">
+        <v>0</v>
+      </c>
+      <c r="M38" s="73" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A39" s="115" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" s="75"/>
+      <c r="F39" s="76"/>
+      <c r="G39" s="75"/>
+      <c r="H39" s="75"/>
+      <c r="L39" s="79">
+        <v>1</v>
+      </c>
+      <c r="M39" s="73" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A40" s="113" t="s">
+        <v>203</v>
+      </c>
+      <c r="B40" s="75"/>
+      <c r="C40" s="75"/>
+      <c r="D40" s="113" t="s">
+        <v>201</v>
+      </c>
+      <c r="E40" s="75"/>
+      <c r="F40" s="76"/>
+      <c r="G40" s="75"/>
+      <c r="H40" s="75"/>
+      <c r="L40" s="79">
+        <v>2</v>
+      </c>
+      <c r="M40" s="73" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>198</v>
+      </c>
+      <c r="B41" t="s">
+        <v>199</v>
+      </c>
+      <c r="C41" s="75"/>
+      <c r="D41" t="s">
+        <v>198</v>
+      </c>
+      <c r="E41" t="s">
+        <v>199</v>
+      </c>
+      <c r="F41" s="75"/>
+      <c r="G41" s="75"/>
+      <c r="H41" s="75"/>
+      <c r="L41" s="79">
+        <v>3</v>
+      </c>
+      <c r="M41" s="73" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A42" s="75" t="s">
+        <v>197</v>
+      </c>
+      <c r="B42" s="75" t="s">
+        <v>202</v>
+      </c>
+      <c r="C42" s="75"/>
+      <c r="D42" s="75" t="s">
+        <v>202</v>
+      </c>
+      <c r="E42" s="75" t="s">
+        <v>197</v>
+      </c>
+      <c r="F42" s="75"/>
+      <c r="G42" s="75"/>
+      <c r="H42" s="75"/>
+      <c r="L42" s="79">
+        <v>4</v>
+      </c>
+      <c r="M42" s="73" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="F43" s="75"/>
+      <c r="G43" s="75"/>
+      <c r="H43" s="76"/>
+      <c r="L43" s="79">
+        <v>5</v>
+      </c>
+      <c r="M43" s="73" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="F44" s="75"/>
+      <c r="G44" s="75"/>
+      <c r="H44" s="75"/>
+      <c r="I44" s="78"/>
+      <c r="J44" s="78"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="F45" s="75"/>
+      <c r="G45" s="75"/>
+      <c r="H45" s="75"/>
+      <c r="I45" s="78"/>
+      <c r="J45" s="78"/>
+      <c r="L45" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A46" s="75"/>
+      <c r="B46" s="75"/>
+      <c r="C46" s="75"/>
+      <c r="D46" s="75"/>
+      <c r="E46" s="75"/>
+      <c r="F46" s="75"/>
+      <c r="G46" s="75"/>
+      <c r="H46" s="75"/>
+      <c r="I46" s="78"/>
+      <c r="J46" s="78"/>
+      <c r="L46" s="80" t="s">
         <v>176</v>
       </c>
-      <c r="C7" s="99" t="s">
-        <v>145</v>
-      </c>
-      <c r="D7" s="99" t="s">
-        <v>141</v>
-      </c>
-      <c r="E7" s="99" t="s">
-        <v>142</v>
-      </c>
-      <c r="F7" s="99" t="s">
-        <v>143</v>
-      </c>
-      <c r="G7" s="99" t="s">
-        <v>144</v>
-      </c>
-      <c r="H7" s="100" t="s">
-        <v>154</v>
-      </c>
-      <c r="I7" s="100" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="99"/>
-      <c r="B8" s="99"/>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="101"/>
-      <c r="B9" s="101"/>
-      <c r="C9" s="101"/>
-      <c r="D9" s="101"/>
-      <c r="E9" s="101"/>
-      <c r="F9" s="101"/>
-      <c r="G9" s="101"/>
-      <c r="H9" s="101"/>
-      <c r="I9" s="101"/>
-      <c r="J9" s="101"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="99" t="s">
-        <v>165</v>
-      </c>
-      <c r="B10" s="99" t="s">
-        <v>145</v>
-      </c>
-      <c r="C10" s="99" t="s">
-        <v>141</v>
-      </c>
-      <c r="D10" s="99" t="s">
-        <v>142</v>
-      </c>
-      <c r="E10" s="99" t="s">
-        <v>143</v>
-      </c>
-      <c r="F10" s="99" t="s">
-        <v>144</v>
-      </c>
-      <c r="G10" s="100" t="s">
-        <v>154</v>
-      </c>
-      <c r="H10" s="100" t="s">
-        <v>155</v>
-      </c>
-      <c r="J10" s="101"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="99"/>
-      <c r="B11" s="99"/>
-      <c r="C11" s="99"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="99"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="99" t="s">
-        <v>153</v>
-      </c>
-      <c r="B14" s="99" t="s">
-        <v>152</v>
-      </c>
-      <c r="C14" s="99" t="s">
-        <v>149</v>
-      </c>
-      <c r="D14" s="99" t="s">
-        <v>146</v>
-      </c>
-      <c r="E14" s="99" t="s">
-        <v>147</v>
-      </c>
-      <c r="F14" s="99" t="s">
-        <v>148</v>
-      </c>
-      <c r="G14" s="99" t="s">
-        <v>150</v>
-      </c>
-      <c r="H14" s="109"/>
-      <c r="I14" s="101"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" s="99"/>
-      <c r="B15" s="99"/>
-      <c r="C15" s="99"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="99"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="101"/>
-      <c r="B16" s="101"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="101"/>
-      <c r="G16" s="101"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="101"/>
-      <c r="B17" s="101"/>
-      <c r="C17" s="101"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="101"/>
-      <c r="F17" s="101"/>
-      <c r="G17" s="101"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C18" s="110" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="99" t="s">
-        <v>187</v>
-      </c>
-      <c r="B21" s="99" t="s">
-        <v>182</v>
-      </c>
-      <c r="C21" s="99" t="s">
-        <v>185</v>
-      </c>
-      <c r="D21" s="99" t="s">
-        <v>183</v>
-      </c>
-      <c r="E21" s="99" t="s">
-        <v>184</v>
-      </c>
-      <c r="F21" s="99" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="99"/>
-      <c r="B22" s="99"/>
-      <c r="C22" s="99"/>
-      <c r="D22" s="99"/>
-      <c r="E22" s="99"/>
-      <c r="F22" s="99"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
+      <c r="M46" s="80" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A33" s="99" t="s">
-        <v>162</v>
-      </c>
-      <c r="B33" s="99" t="s">
-        <v>156</v>
-      </c>
-      <c r="C33" s="99" t="s">
-        <v>178</v>
-      </c>
-      <c r="D33" s="99" t="s">
-        <v>157</v>
-      </c>
-      <c r="E33" s="100" t="s">
-        <v>180</v>
-      </c>
-      <c r="F33" s="100" t="s">
-        <v>160</v>
-      </c>
-      <c r="G33" s="99" t="s">
-        <v>159</v>
-      </c>
-      <c r="H33" s="100" t="s">
-        <v>163</v>
-      </c>
-      <c r="I33" s="100" t="s">
-        <v>164</v>
-      </c>
-      <c r="K33" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A34" s="99"/>
-      <c r="B34" s="99"/>
-      <c r="C34" s="99"/>
-      <c r="D34" s="99"/>
-      <c r="E34" s="99"/>
-      <c r="F34" s="99"/>
-      <c r="G34" s="99"/>
-      <c r="H34" s="99"/>
-      <c r="I34" s="99"/>
-      <c r="K34" s="106" t="s">
-        <v>161</v>
-      </c>
-      <c r="L34" s="106" t="s">
+      <c r="N46" s="73" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="L47" s="79">
+        <v>0</v>
+      </c>
+      <c r="M47" s="79">
+        <v>0</v>
+      </c>
+      <c r="N47" s="77">
+        <v>100</v>
+      </c>
+      <c r="O47" s="75"/>
+      <c r="P47" s="75"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="L48" s="73"/>
+      <c r="M48" s="79">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="K35" s="105">
+      <c r="N48" s="77">
+        <v>100</v>
+      </c>
+      <c r="O48" s="75"/>
+      <c r="P48" s="75"/>
+    </row>
+    <row r="49" spans="11:16" x14ac:dyDescent="0.15">
+      <c r="L49" s="73"/>
+      <c r="M49" s="79">
+        <v>2</v>
+      </c>
+      <c r="N49" s="77">
+        <v>100</v>
+      </c>
+      <c r="O49" s="75"/>
+      <c r="P49" s="75"/>
+    </row>
+    <row r="50" spans="11:16" x14ac:dyDescent="0.15">
+      <c r="K50" s="81"/>
+      <c r="L50" s="73"/>
+      <c r="M50" s="79">
+        <v>3</v>
+      </c>
+      <c r="N50" s="77">
+        <v>100</v>
+      </c>
+      <c r="O50" s="75"/>
+      <c r="P50" s="75"/>
+    </row>
+    <row r="51" spans="11:16" x14ac:dyDescent="0.15">
+      <c r="L51" s="79">
+        <v>1</v>
+      </c>
+      <c r="M51" s="79">
         <v>0</v>
       </c>
-      <c r="L35" s="103" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="K36" s="105">
+      <c r="N51" s="77">
+        <v>100</v>
+      </c>
+      <c r="O51" s="75"/>
+      <c r="P51" s="75"/>
+    </row>
+    <row r="52" spans="11:16" x14ac:dyDescent="0.15">
+      <c r="L52" s="73"/>
+      <c r="M52" s="79">
         <v>1</v>
       </c>
-      <c r="L36" s="103" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="K37" s="105">
+      <c r="N52" s="77">
+        <v>100</v>
+      </c>
+      <c r="O52" s="75"/>
+      <c r="P52" s="75"/>
+    </row>
+    <row r="53" spans="11:16" x14ac:dyDescent="0.15">
+      <c r="L53" s="73"/>
+      <c r="M53" s="79">
         <v>2</v>
       </c>
-      <c r="L37" s="103" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="J38" s="107"/>
-      <c r="K38" s="105">
+      <c r="N53" s="77">
+        <v>100</v>
+      </c>
+      <c r="O53" s="75"/>
+      <c r="P53" s="75"/>
+    </row>
+    <row r="54" spans="11:16" x14ac:dyDescent="0.15">
+      <c r="K54" s="81"/>
+      <c r="L54" s="73"/>
+      <c r="M54" s="79">
         <v>3</v>
       </c>
-      <c r="L38" s="108" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A39" s="101"/>
-      <c r="B39" s="101"/>
-      <c r="C39" s="101"/>
-      <c r="D39" s="101"/>
-      <c r="E39" s="101"/>
-      <c r="F39" s="101"/>
-      <c r="G39" s="101"/>
-      <c r="H39" s="101"/>
-      <c r="J39" s="107"/>
-      <c r="K39" s="101"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="101"/>
-      <c r="B40" s="101"/>
-      <c r="C40" s="101"/>
-      <c r="D40" s="101"/>
-      <c r="E40" s="101"/>
-      <c r="F40" s="102"/>
-      <c r="G40" s="101"/>
-      <c r="H40" s="101"/>
-      <c r="J40" s="101"/>
-      <c r="K40" s="101"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A41" s="101"/>
-      <c r="B41" s="101"/>
-      <c r="C41" s="101"/>
-      <c r="D41" s="101"/>
-      <c r="E41" s="101"/>
-      <c r="F41" s="101"/>
-      <c r="G41" s="101"/>
-      <c r="H41" s="101"/>
-      <c r="K41" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A42" s="101"/>
-      <c r="B42" s="101"/>
-      <c r="C42" s="101"/>
-      <c r="D42" s="101"/>
-      <c r="E42" s="101"/>
-      <c r="F42" s="101"/>
-      <c r="G42" s="101"/>
-      <c r="H42" s="101"/>
-      <c r="K42" s="106" t="s">
-        <v>161</v>
-      </c>
-      <c r="L42" s="106" t="s">
+      <c r="N54" s="77">
+        <v>100</v>
+      </c>
+      <c r="O54" s="75"/>
+      <c r="P54" s="75"/>
+    </row>
+    <row r="55" spans="11:16" x14ac:dyDescent="0.15">
+      <c r="L55" s="79">
+        <v>2</v>
+      </c>
+      <c r="M55" s="79">
+        <v>0</v>
+      </c>
+      <c r="N55" s="77">
+        <v>100</v>
+      </c>
+      <c r="O55" s="75"/>
+      <c r="P55" s="75"/>
+    </row>
+    <row r="56" spans="11:16" x14ac:dyDescent="0.15">
+      <c r="L56" s="73"/>
+      <c r="M56" s="79">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A43" s="101"/>
-      <c r="B43" s="101"/>
-      <c r="C43" s="101"/>
-      <c r="D43" s="101"/>
-      <c r="E43" s="101"/>
-      <c r="F43" s="101"/>
-      <c r="G43" s="101"/>
-      <c r="H43" s="101"/>
-      <c r="K43" s="105">
+      <c r="N56" s="77">
+        <v>100</v>
+      </c>
+      <c r="O56" s="75"/>
+      <c r="P56" s="75"/>
+    </row>
+    <row r="57" spans="11:16" x14ac:dyDescent="0.15">
+      <c r="L57" s="73"/>
+      <c r="M57" s="79">
+        <v>2</v>
+      </c>
+      <c r="N57" s="77">
+        <v>100</v>
+      </c>
+      <c r="O57" s="75"/>
+      <c r="P57" s="75"/>
+    </row>
+    <row r="58" spans="11:16" x14ac:dyDescent="0.15">
+      <c r="K58" s="81"/>
+      <c r="L58" s="73"/>
+      <c r="M58" s="79">
+        <v>3</v>
+      </c>
+      <c r="N58" s="77">
+        <v>100</v>
+      </c>
+      <c r="O58" s="75"/>
+      <c r="P58" s="75"/>
+    </row>
+    <row r="59" spans="11:16" x14ac:dyDescent="0.15">
+      <c r="L59" s="79">
+        <v>3</v>
+      </c>
+      <c r="M59" s="79">
         <v>0</v>
       </c>
-      <c r="L43" s="99" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A44" s="101"/>
-      <c r="B44" s="101"/>
-      <c r="C44" s="101"/>
-      <c r="D44" s="101"/>
-      <c r="E44" s="101"/>
-      <c r="F44" s="102"/>
-      <c r="G44" s="101"/>
-      <c r="H44" s="101"/>
-      <c r="K44" s="105">
+      <c r="N59" s="77">
+        <v>100</v>
+      </c>
+      <c r="O59" s="75"/>
+      <c r="P59" s="75"/>
+    </row>
+    <row r="60" spans="11:16" x14ac:dyDescent="0.15">
+      <c r="L60" s="73"/>
+      <c r="M60" s="79">
         <v>1</v>
       </c>
-      <c r="L44" s="99" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A45" s="101"/>
-      <c r="B45" s="101"/>
-      <c r="C45" s="101"/>
-      <c r="D45" s="101"/>
-      <c r="E45" s="101"/>
-      <c r="F45" s="102"/>
-      <c r="G45" s="101"/>
-      <c r="H45" s="101"/>
-      <c r="K45" s="105">
+      <c r="N60" s="77">
+        <v>100</v>
+      </c>
+      <c r="O60" s="75"/>
+      <c r="P60" s="75"/>
+    </row>
+    <row r="61" spans="11:16" x14ac:dyDescent="0.15">
+      <c r="L61" s="73"/>
+      <c r="M61" s="79">
         <v>2</v>
       </c>
-      <c r="L45" s="99" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A46" s="101"/>
-      <c r="B46" s="101"/>
-      <c r="C46" s="101"/>
-      <c r="D46" s="101"/>
-      <c r="E46" s="101"/>
-      <c r="F46" s="101"/>
-      <c r="G46" s="101"/>
-      <c r="H46" s="101"/>
-      <c r="K46" s="105">
+      <c r="N61" s="77">
+        <v>100</v>
+      </c>
+      <c r="O61" s="75"/>
+      <c r="P61" s="75"/>
+    </row>
+    <row r="62" spans="11:16" x14ac:dyDescent="0.15">
+      <c r="K62" s="81"/>
+      <c r="L62" s="73"/>
+      <c r="M62" s="79">
         <v>3</v>
       </c>
-      <c r="L46" s="99" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A47" s="101"/>
-      <c r="B47" s="101"/>
-      <c r="C47" s="101"/>
-      <c r="D47" s="101"/>
-      <c r="E47" s="101"/>
-      <c r="F47" s="101"/>
-      <c r="G47" s="101"/>
-      <c r="H47" s="101"/>
-      <c r="K47" s="105">
+      <c r="N62" s="77">
+        <v>100</v>
+      </c>
+      <c r="O62" s="75"/>
+      <c r="P62" s="75"/>
+    </row>
+    <row r="63" spans="11:16" x14ac:dyDescent="0.15">
+      <c r="L63" s="79">
         <v>4</v>
       </c>
-      <c r="L47" s="99" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A48" s="101"/>
-      <c r="B48" s="101"/>
-      <c r="C48" s="101"/>
-      <c r="D48" s="102"/>
-      <c r="E48" s="102"/>
-      <c r="F48" s="101"/>
-      <c r="G48" s="101"/>
-      <c r="H48" s="102"/>
-      <c r="K48" s="105">
-        <v>5</v>
-      </c>
-      <c r="L48" s="99" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A49" s="101"/>
-      <c r="B49" s="101"/>
-      <c r="C49" s="101"/>
-      <c r="D49" s="101"/>
-      <c r="E49" s="101"/>
-      <c r="F49" s="101"/>
-      <c r="G49" s="101"/>
-      <c r="H49" s="101"/>
-      <c r="I49" s="104"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A50" s="101"/>
-      <c r="B50" s="101"/>
-      <c r="C50" s="101"/>
-      <c r="D50" s="101"/>
-      <c r="E50" s="101"/>
-      <c r="F50" s="101"/>
-      <c r="G50" s="101"/>
-      <c r="H50" s="101"/>
-      <c r="I50" s="104"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A51" s="101"/>
-      <c r="B51" s="101"/>
-      <c r="C51" s="101"/>
-      <c r="D51" s="101"/>
-      <c r="E51" s="101"/>
-      <c r="F51" s="101"/>
-      <c r="G51" s="101"/>
-      <c r="H51" s="101"/>
-      <c r="I51" s="104"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A52" s="101"/>
-      <c r="B52" s="101"/>
-      <c r="C52" s="101"/>
-      <c r="D52" s="102"/>
-      <c r="E52" s="101"/>
-      <c r="F52" s="101"/>
-      <c r="G52" s="102"/>
-      <c r="H52" s="101"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A53" s="101"/>
-      <c r="B53" s="101"/>
-      <c r="C53" s="101"/>
-      <c r="D53" s="101"/>
-      <c r="E53" s="101"/>
-      <c r="F53" s="101"/>
-      <c r="G53" s="101"/>
-      <c r="H53" s="101"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A54" s="101"/>
-      <c r="B54" s="101"/>
-      <c r="C54" s="101"/>
-      <c r="D54" s="101"/>
-      <c r="E54" s="101"/>
-      <c r="F54" s="101"/>
-      <c r="G54" s="101"/>
-      <c r="H54" s="101"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A55" s="101"/>
-      <c r="B55" s="101"/>
-      <c r="C55" s="101"/>
-      <c r="D55" s="101"/>
-      <c r="E55" s="101"/>
-      <c r="F55" s="101"/>
-      <c r="G55" s="101"/>
-      <c r="H55" s="101"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A56" s="101"/>
-      <c r="B56" s="101"/>
-      <c r="C56" s="101"/>
-      <c r="D56" s="101"/>
-      <c r="E56" s="101"/>
-      <c r="F56" s="101"/>
-      <c r="G56" s="102"/>
-      <c r="H56" s="101"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A57" s="101"/>
-      <c r="B57" s="101"/>
-      <c r="C57" s="101"/>
-      <c r="D57" s="101"/>
-      <c r="E57" s="101"/>
-      <c r="F57" s="101"/>
-      <c r="G57" s="102"/>
-      <c r="H57" s="101"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A58" s="101"/>
-      <c r="B58" s="101"/>
-      <c r="C58" s="101"/>
-      <c r="D58" s="101"/>
-      <c r="E58" s="101"/>
-      <c r="F58" s="101"/>
-      <c r="G58" s="101"/>
-      <c r="H58" s="101"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A59" s="101"/>
-      <c r="B59" s="101"/>
-      <c r="C59" s="101"/>
-      <c r="D59" s="101"/>
-      <c r="E59" s="101"/>
-      <c r="F59" s="101"/>
-      <c r="G59" s="101"/>
-      <c r="H59" s="101"/>
+      <c r="M63" s="79">
+        <v>0</v>
+      </c>
+      <c r="N63" s="77">
+        <v>100</v>
+      </c>
+      <c r="O63" s="75"/>
+      <c r="P63" s="75"/>
+    </row>
+    <row r="64" spans="11:16" x14ac:dyDescent="0.15">
+      <c r="L64" s="73"/>
+      <c r="M64" s="79">
+        <v>1</v>
+      </c>
+      <c r="N64" s="77">
+        <v>100</v>
+      </c>
+      <c r="O64" s="75"/>
+      <c r="P64" s="75"/>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="L65" s="73"/>
+      <c r="M65" s="79">
+        <v>2</v>
+      </c>
+      <c r="N65" s="77">
+        <v>100</v>
+      </c>
+      <c r="O65" s="75"/>
+      <c r="P65" s="75"/>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="K66" s="81"/>
+      <c r="L66" s="73"/>
+      <c r="M66" s="79">
+        <v>3</v>
+      </c>
+      <c r="N66" s="77">
+        <v>100</v>
+      </c>
+      <c r="O66" s="75"/>
+      <c r="P66" s="75"/>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A67" s="75"/>
+      <c r="B67" s="75"/>
+      <c r="C67" s="75"/>
+      <c r="D67" s="75"/>
+      <c r="E67" s="75"/>
+      <c r="F67" s="75"/>
+      <c r="G67" s="76"/>
+      <c r="H67" s="75"/>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A68" s="75"/>
+      <c r="B68" s="75"/>
+      <c r="C68" s="75"/>
+      <c r="D68" s="75"/>
+      <c r="E68" s="75"/>
+      <c r="F68" s="75"/>
+      <c r="G68" s="75"/>
+      <c r="H68" s="75"/>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A69" s="75"/>
+      <c r="B69" s="75"/>
+      <c r="C69" s="75"/>
+      <c r="D69" s="75"/>
+      <c r="E69" s="75"/>
+      <c r="F69" s="75"/>
+      <c r="G69" s="75"/>
+      <c r="H69" s="75"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F7:G7"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/개발문서/기능정의서.xlsx
+++ b/개발문서/기능정의서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kopo\Open-Banking-DB-Project\개발문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66CE096B-1679-4911-8793-33FF2B5C63B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA384B7-725F-4DE8-83A2-8C4125E8C1A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19425" yWindow="4425" windowWidth="18975" windowHeight="585" tabRatio="706" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18225" yWindow="1005" windowWidth="18975" windowHeight="585" tabRatio="706" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="메뉴" sheetId="21" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="253">
   <si>
     <t>Category</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1312,6 +1312,45 @@
   </si>
   <si>
     <t>DEPTH</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>별칭 수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계좌번호로 검색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>은행으로 검색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000원 이상 입금받기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하나계좌 서비스</t>
+  </si>
+  <si>
+    <t>이체할 은행 입력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비번 수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>통합계좌 등록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뱅킹서비스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오픈 등록한 계좌 목록</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2294,7 +2333,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2543,6 +2582,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2626,13 +2674,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2974,337 +3019,250 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E6FBF4-BB9C-4D09-B0C6-06E00A0A13FF}">
-  <dimension ref="C2:R46"/>
+  <dimension ref="B2:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="4" max="4" width="4.33203125" customWidth="1"/>
-    <col min="5" max="5" width="4.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" customWidth="1"/>
-    <col min="7" max="8" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" customWidth="1"/>
-    <col min="11" max="11" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="E2" t="s">
-        <v>242</v>
-      </c>
-      <c r="K2" t="s">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="H2" t="s">
         <v>211</v>
       </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
       <c r="L2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M2">
-        <v>2</v>
-      </c>
-      <c r="N2">
-        <v>3</v>
-      </c>
-      <c r="O2">
-        <v>4</v>
-      </c>
-      <c r="P2">
         <v>5</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="N2" t="s">
         <v>240</v>
       </c>
-      <c r="R2" t="s">
+      <c r="O2" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="3" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="C3" t="s">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
         <v>210</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
         <v>209</v>
       </c>
-      <c r="K3" t="s">
+      <c r="H6" t="s">
         <v>212</v>
       </c>
-      <c r="L3" t="s">
-        <v>238</v>
-      </c>
-      <c r="M3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="5" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="F5" t="s">
-        <v>237</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="I6" s="116" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="116" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="D7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="E9" t="s">
+        <v>231</v>
+      </c>
+      <c r="H9" t="s">
+        <v>230</v>
+      </c>
+      <c r="I9" t="s">
+        <v>228</v>
+      </c>
+      <c r="J9" t="s">
+        <v>251</v>
+      </c>
+      <c r="K9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="E11" t="s">
+        <v>247</v>
+      </c>
+      <c r="I11" t="s">
+        <v>86</v>
+      </c>
+      <c r="J11" t="s">
+        <v>131</v>
+      </c>
+      <c r="K11" t="s">
+        <v>83</v>
+      </c>
+      <c r="L11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="F13" s="116" t="s">
+        <v>86</v>
+      </c>
+      <c r="H13" s="116" t="s">
+        <v>221</v>
+      </c>
+      <c r="I13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="F14" s="116"/>
+      <c r="H14" s="117" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="I15" s="116" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="I16" s="117" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="19" spans="5:12" x14ac:dyDescent="0.15">
+      <c r="F19" s="116" t="s">
+        <v>131</v>
+      </c>
+      <c r="H19" t="s">
+        <v>221</v>
+      </c>
+      <c r="I19" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="21" spans="5:12" x14ac:dyDescent="0.15">
+      <c r="F21" s="116" t="s">
+        <v>83</v>
+      </c>
+      <c r="H21" t="s">
+        <v>221</v>
+      </c>
+      <c r="I21" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="22" spans="5:12" x14ac:dyDescent="0.15">
+      <c r="I22" s="116" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="23" spans="5:12" x14ac:dyDescent="0.15">
+      <c r="I23" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="24" spans="5:12" x14ac:dyDescent="0.15">
+      <c r="I24" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="25" spans="5:12" x14ac:dyDescent="0.15">
+      <c r="F25" s="116" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="5:12" x14ac:dyDescent="0.15">
+      <c r="F27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="5:12" x14ac:dyDescent="0.15">
+      <c r="E28" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="30" spans="5:12" x14ac:dyDescent="0.15">
+      <c r="H30" t="s">
         <v>212</v>
       </c>
-      <c r="L5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="G7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="G8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="H9" t="s">
-        <v>231</v>
-      </c>
-      <c r="K9" t="s">
-        <v>230</v>
-      </c>
-      <c r="L9" t="s">
-        <v>228</v>
-      </c>
-      <c r="M9" t="s">
-        <v>227</v>
-      </c>
-      <c r="N9" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="11" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="H11" t="s">
-        <v>228</v>
-      </c>
-      <c r="L11" t="s">
-        <v>86</v>
-      </c>
-      <c r="M11" t="s">
-        <v>131</v>
-      </c>
-      <c r="N11" t="s">
-        <v>83</v>
-      </c>
-      <c r="O11" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="13" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="I13" t="s">
-        <v>86</v>
-      </c>
-      <c r="K13" t="s">
-        <v>221</v>
-      </c>
-      <c r="L13" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="14" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="L14" t="s">
-        <v>223</v>
-      </c>
-      <c r="M14" t="s">
+      <c r="I30" t="s">
+        <v>215</v>
+      </c>
+      <c r="J30" t="s">
+        <v>90</v>
+      </c>
+      <c r="K30" t="s">
+        <v>91</v>
+      </c>
+      <c r="L30" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="16" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="I16" t="s">
-        <v>131</v>
-      </c>
-      <c r="K16" t="s">
-        <v>221</v>
-      </c>
-      <c r="L16" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="18" spans="8:15" x14ac:dyDescent="0.15">
-      <c r="I18" t="s">
-        <v>83</v>
-      </c>
-      <c r="K18" t="s">
-        <v>221</v>
-      </c>
-      <c r="L18" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="20" spans="8:15" x14ac:dyDescent="0.15">
-      <c r="I20" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="22" spans="8:15" x14ac:dyDescent="0.15">
-      <c r="H22" t="s">
-        <v>227</v>
-      </c>
-      <c r="I22" t="s">
-        <v>226</v>
-      </c>
-      <c r="L22" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="24" spans="8:15" x14ac:dyDescent="0.15">
-      <c r="I24" t="s">
-        <v>225</v>
-      </c>
-      <c r="K24" t="s">
-        <v>224</v>
-      </c>
-      <c r="L24" t="s">
-        <v>86</v>
-      </c>
-      <c r="M24" t="s">
-        <v>84</v>
-      </c>
-      <c r="N24" t="s">
-        <v>83</v>
-      </c>
-      <c r="O24" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" spans="8:15" x14ac:dyDescent="0.15">
-      <c r="I26" t="s">
-        <v>86</v>
-      </c>
-      <c r="K26" t="s">
-        <v>221</v>
-      </c>
-      <c r="L26" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="27" spans="8:15" x14ac:dyDescent="0.15">
-      <c r="L27" t="s">
-        <v>223</v>
-      </c>
-      <c r="M27" t="s">
+    <row r="32" spans="5:12" x14ac:dyDescent="0.15">
+      <c r="F32" s="116" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="6:9" x14ac:dyDescent="0.15">
+      <c r="I33" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="35" spans="6:9" x14ac:dyDescent="0.15">
+      <c r="F35" s="116" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="6:9" x14ac:dyDescent="0.15">
+      <c r="I36" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="38" spans="6:9" x14ac:dyDescent="0.15">
+      <c r="F38" s="116" t="s">
         <v>216</v>
       </c>
-      <c r="N27" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="29" spans="8:15" x14ac:dyDescent="0.15">
-      <c r="I29" t="s">
-        <v>85</v>
-      </c>
-      <c r="K29" t="s">
-        <v>221</v>
-      </c>
-      <c r="L29" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="31" spans="8:15" x14ac:dyDescent="0.15">
-      <c r="I31" t="s">
-        <v>83</v>
-      </c>
-      <c r="K31" t="s">
-        <v>221</v>
-      </c>
-      <c r="L31" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="33" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="I33" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="34" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="H34" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="36" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D36">
-        <v>3</v>
-      </c>
-      <c r="F36" t="s">
-        <v>218</v>
-      </c>
-      <c r="K36" t="s">
-        <v>212</v>
-      </c>
-      <c r="L36" t="s">
-        <v>215</v>
-      </c>
-      <c r="M36" t="s">
-        <v>90</v>
-      </c>
-      <c r="N36" t="s">
-        <v>91</v>
-      </c>
-      <c r="O36" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="38" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="G38" t="s">
-        <v>90</v>
-      </c>
-      <c r="L38" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="39" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="L39" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="41" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="G41" t="s">
-        <v>91</v>
-      </c>
-      <c r="L41" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="42" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="L42" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="44" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="G44" t="s">
-        <v>216</v>
-      </c>
-      <c r="L44" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="45" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="L45" t="s">
+      <c r="I38" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="39" spans="6:9" x14ac:dyDescent="0.15">
+      <c r="I39" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="46" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="L46" t="s">
+    <row r="40" spans="6:9" x14ac:dyDescent="0.15">
+      <c r="I40" t="s">
         <v>213</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3312,8 +3270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8026384-AD76-4A8C-9119-D0FEDF7DAF54}">
   <dimension ref="C2:S55"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18:O18"/>
+    <sheetView topLeftCell="B4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3515,6 +3473,12 @@
     <row r="29" spans="8:16" x14ac:dyDescent="0.15">
       <c r="I29" t="s">
         <v>130</v>
+      </c>
+      <c r="J29" t="s">
+        <v>246</v>
+      </c>
+      <c r="K29" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="8:16" x14ac:dyDescent="0.15">
@@ -3700,12 +3664,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="88"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91"/>
     </row>
     <row r="3" spans="2:5" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3896,14 +3860,14 @@
     </row>
     <row r="2" spans="1:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="91"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="94"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5"/>
@@ -3913,12 +3877,12 @@
       <c r="C3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="92" t="s">
+      <c r="D3" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="94"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="97"/>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
@@ -3928,12 +3892,12 @@
       <c r="C4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="95">
+      <c r="D4" s="98">
         <v>44321</v>
       </c>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="97"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="100"/>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
@@ -3946,16 +3910,16 @@
     </row>
     <row r="6" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5"/>
-      <c r="B6" s="105" t="s">
+      <c r="B6" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="106"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="103" t="s">
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="107" t="s">
+      <c r="G6" s="110" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3973,8 +3937,8 @@
       <c r="E7" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="F7" s="104"/>
-      <c r="G7" s="108"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="111"/>
     </row>
     <row r="8" spans="1:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5"/>
@@ -4017,7 +3981,7 @@
       <c r="B10" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="101" t="s">
+      <c r="C10" s="104" t="s">
         <v>52</v>
       </c>
       <c r="D10" s="65" t="s">
@@ -4034,7 +3998,7 @@
     <row r="11" spans="1:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5"/>
       <c r="B11" s="39"/>
-      <c r="C11" s="102"/>
+      <c r="C11" s="105"/>
       <c r="D11" s="66" t="s">
         <v>46</v>
       </c>
@@ -4049,7 +4013,7 @@
     <row r="12" spans="1:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5"/>
       <c r="B12" s="39"/>
-      <c r="C12" s="109" t="s">
+      <c r="C12" s="112" t="s">
         <v>55</v>
       </c>
       <c r="D12" s="63" t="s">
@@ -4064,7 +4028,7 @@
     <row r="13" spans="1:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5"/>
       <c r="B13" s="39"/>
-      <c r="C13" s="110"/>
+      <c r="C13" s="113"/>
       <c r="D13" s="63" t="s">
         <v>53</v>
       </c>
@@ -4079,7 +4043,7 @@
     <row r="14" spans="1:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5"/>
       <c r="B14" s="39"/>
-      <c r="C14" s="111"/>
+      <c r="C14" s="114"/>
       <c r="D14" s="63" t="s">
         <v>49</v>
       </c>
@@ -4092,7 +4056,7 @@
     <row r="15" spans="1:8" ht="42" x14ac:dyDescent="0.15">
       <c r="A15" s="5"/>
       <c r="B15" s="39"/>
-      <c r="C15" s="98" t="s">
+      <c r="C15" s="101" t="s">
         <v>25</v>
       </c>
       <c r="D15" s="64" t="s">
@@ -4111,7 +4075,7 @@
     <row r="16" spans="1:8" ht="21.75" x14ac:dyDescent="0.15">
       <c r="A16" s="5"/>
       <c r="B16" s="39"/>
-      <c r="C16" s="99"/>
+      <c r="C16" s="102"/>
       <c r="D16" s="64" t="s">
         <v>33</v>
       </c>
@@ -4128,7 +4092,7 @@
     <row r="17" spans="1:7" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="39"/>
-      <c r="C17" s="100"/>
+      <c r="C17" s="103"/>
       <c r="D17" s="64" t="s">
         <v>24</v>
       </c>
@@ -4147,7 +4111,7 @@
       <c r="B18" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="101" t="s">
+      <c r="C18" s="104" t="s">
         <v>56</v>
       </c>
       <c r="D18" s="65" t="s">
@@ -4164,7 +4128,7 @@
     <row r="19" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="5"/>
       <c r="B19" s="39"/>
-      <c r="C19" s="102"/>
+      <c r="C19" s="105"/>
       <c r="D19" s="66" t="s">
         <v>46</v>
       </c>
@@ -4179,7 +4143,7 @@
     <row r="20" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="5"/>
       <c r="B20" s="39"/>
-      <c r="C20" s="109" t="s">
+      <c r="C20" s="112" t="s">
         <v>55</v>
       </c>
       <c r="D20" s="63" t="s">
@@ -4194,7 +4158,7 @@
     <row r="21" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5"/>
       <c r="B21" s="39"/>
-      <c r="C21" s="110"/>
+      <c r="C21" s="113"/>
       <c r="D21" s="63" t="s">
         <v>53</v>
       </c>
@@ -4207,7 +4171,7 @@
     <row r="22" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5"/>
       <c r="B22" s="39"/>
-      <c r="C22" s="111"/>
+      <c r="C22" s="114"/>
       <c r="D22" s="63" t="s">
         <v>49</v>
       </c>
@@ -4220,7 +4184,7 @@
     <row r="23" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="5"/>
       <c r="B23" s="39"/>
-      <c r="C23" s="109" t="s">
+      <c r="C23" s="112" t="s">
         <v>64</v>
       </c>
       <c r="D23" s="63" t="s">
@@ -4235,7 +4199,7 @@
     <row r="24" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="5"/>
       <c r="B24" s="39"/>
-      <c r="C24" s="110"/>
+      <c r="C24" s="113"/>
       <c r="D24" s="63" t="s">
         <v>69</v>
       </c>
@@ -4248,7 +4212,7 @@
     <row r="25" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="5"/>
       <c r="B25" s="39"/>
-      <c r="C25" s="111"/>
+      <c r="C25" s="114"/>
       <c r="D25" s="63" t="s">
         <v>67</v>
       </c>
@@ -4261,7 +4225,7 @@
     <row r="26" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="5"/>
       <c r="B26" s="39"/>
-      <c r="C26" s="109" t="s">
+      <c r="C26" s="112" t="s">
         <v>65</v>
       </c>
       <c r="D26" s="63" t="s">
@@ -4276,7 +4240,7 @@
     <row r="27" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="5"/>
       <c r="B27" s="39"/>
-      <c r="C27" s="110"/>
+      <c r="C27" s="113"/>
       <c r="D27" s="63" t="s">
         <v>70</v>
       </c>
@@ -4291,7 +4255,7 @@
     <row r="28" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
       <c r="B28" s="39"/>
-      <c r="C28" s="111"/>
+      <c r="C28" s="114"/>
       <c r="D28" s="63" t="s">
         <v>67</v>
       </c>
@@ -4304,7 +4268,7 @@
     <row r="29" spans="1:7" ht="21" x14ac:dyDescent="0.15">
       <c r="A29" s="5"/>
       <c r="B29" s="38"/>
-      <c r="C29" s="98" t="s">
+      <c r="C29" s="101" t="s">
         <v>29</v>
       </c>
       <c r="D29" s="68" t="s">
@@ -4321,7 +4285,7 @@
     <row r="30" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="5"/>
       <c r="B30" s="38"/>
-      <c r="C30" s="99"/>
+      <c r="C30" s="102"/>
       <c r="D30" s="68" t="s">
         <v>59</v>
       </c>
@@ -4338,7 +4302,7 @@
     <row r="31" spans="1:7" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A31" s="5"/>
       <c r="B31" s="38"/>
-      <c r="C31" s="99"/>
+      <c r="C31" s="102"/>
       <c r="D31" s="68" t="s">
         <v>30</v>
       </c>
@@ -4355,7 +4319,7 @@
     <row r="32" spans="1:7" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="41"/>
-      <c r="C32" s="100"/>
+      <c r="C32" s="103"/>
       <c r="D32" s="69" t="s">
         <v>31</v>
       </c>
@@ -4469,7 +4433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACEBC18A-9F4C-4819-A11D-9F775E0B32F3}">
   <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
@@ -4491,10 +4455,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="F1" s="103" t="s">
+      <c r="F1" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="107" t="s">
+      <c r="G1" s="110" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4514,8 +4478,8 @@
       <c r="E2" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="F2" s="104"/>
-      <c r="G2" s="108"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="111"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
@@ -4816,7 +4780,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0648187D-EAEA-479B-9030-8E45E6D42BC8}">
   <dimension ref="A1:P69"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="E7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
@@ -4910,10 +4874,10 @@
       <c r="A7" t="s">
         <v>149</v>
       </c>
-      <c r="F7" s="112" t="s">
+      <c r="F7" s="115" t="s">
         <v>195</v>
       </c>
-      <c r="G7" s="112"/>
+      <c r="G7" s="115"/>
       <c r="I7" s="76"/>
       <c r="J7" s="76"/>
       <c r="K7" s="76"/>
@@ -5204,7 +5168,7 @@
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A33" s="114" t="s">
+      <c r="A33" s="87" t="s">
         <v>207</v>
       </c>
       <c r="K33" s="81"/>
@@ -5219,12 +5183,12 @@
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A34" s="113" t="s">
+      <c r="A34" s="86" t="s">
         <v>90</v>
       </c>
       <c r="B34" s="75"/>
       <c r="C34" s="75"/>
-      <c r="D34" s="113" t="s">
+      <c r="D34" s="86" t="s">
         <v>91</v>
       </c>
       <c r="E34" s="75"/>
@@ -5303,7 +5267,7 @@
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A39" s="115" t="s">
+      <c r="A39" s="88" t="s">
         <v>92</v>
       </c>
       <c r="C39" s="75"/>
@@ -5318,12 +5282,12 @@
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A40" s="113" t="s">
+      <c r="A40" s="86" t="s">
         <v>203</v>
       </c>
       <c r="B40" s="75"/>
       <c r="C40" s="75"/>
-      <c r="D40" s="113" t="s">
+      <c r="D40" s="86" t="s">
         <v>201</v>
       </c>
       <c r="E40" s="75"/>

--- a/개발문서/기능정의서.xlsx
+++ b/개발문서/기능정의서.xlsx
@@ -8,28 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kopo\Open-Banking-DB-Project\개발문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA384B7-725F-4DE8-83A2-8C4125E8C1A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110C646E-927A-4825-8C28-C77DE7264A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18225" yWindow="1005" windowWidth="18975" windowHeight="585" tabRatio="706" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="메뉴" sheetId="21" r:id="rId1"/>
-    <sheet name="테스트" sheetId="20" r:id="rId2"/>
-    <sheet name="문서이력관리" sheetId="3" r:id="rId3"/>
-    <sheet name="기능정의서_v최종" sheetId="16" r:id="rId4"/>
-    <sheet name="기능개요" sheetId="17" r:id="rId5"/>
-    <sheet name="데이터베이스" sheetId="18" r:id="rId6"/>
+    <sheet name="메뉴 (2)" sheetId="22" r:id="rId1"/>
+    <sheet name="메뉴" sheetId="21" r:id="rId2"/>
+    <sheet name="테스트" sheetId="20" r:id="rId3"/>
+    <sheet name="문서이력관리" sheetId="3" r:id="rId4"/>
+    <sheet name="기능정의서_v최종" sheetId="16" r:id="rId5"/>
+    <sheet name="기능개요" sheetId="17" r:id="rId6"/>
+    <sheet name="데이터베이스" sheetId="18" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">기능정의서_v최종!$A$1:$F$51</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">문서이력관리!$A$1:$E$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">기능정의서_v최종!$A$1:$G$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">문서이력관리!$A$1:$E$37</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="223">
   <si>
     <t>Category</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -354,18 +355,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>O</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>프로젝트_기능정의서 Ver 1.0 최초</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>도서관리 프로그램</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>이해니</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -378,304 +371,31 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>관리자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>로그인</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>도서 검색</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>도서반납</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>도서관리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>도서등록</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>모드 선택(관리자/일반)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>공통</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>도서관리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>연체조회</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>대출조회</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>일반회원으로 접속할지, 관리자모드로 접속할지 선택하는 기능이다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>개인 대출 조회</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자로 로그인하는 기능이다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>제약조건</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">도서를 검색하는 기능이다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">현재 자신이 대출 중인 도서를 조회하는 기능이다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">대출 중인 도서를 반납하는 기능이다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">도서를 삭제하는 기능이다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">연체 중인 도서 및 회원을 조회하는 기능이다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">대출 중인 도서 및 회원을 조회하는 기능이다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">■ 연체는 대출 리스트에 작성된 대출일자와 오늘 날짜를 비교하여 판단한다.
-■ 7일 초과시 연체이다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>■</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 연체 여부를 확인할 수 있다. 
-■ 7일 초과시 연체이다. </t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>■ 로그인했을 때만 사용 가능하다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>로그아웃</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">검색한 도서를 대출하는 기능이다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">관리자로 로그아웃하는 기능이다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>내 정보 수정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>회원가입</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>접속</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원탈퇴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>일반</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 관리(본인)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>접속</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2 Depth</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>3 Depth</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>도서 삭제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>■ 대출 중인 도서 리스트를 띄워준다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 관리(관리자)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 관리(회원)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>추가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>수정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>추가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>강퇴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>강퇴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>■ 대출 중이라면 강퇴 불가하다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>■ 대출 중이라면 탈퇴 불가하다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>■ 현재 대출 중인 도서는 삭제할 수 없다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>■ 연체한 기간동안은 대출이 불가능하다.
-■ 대출 중인 도서는 대출이 불가능하다.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-■ 한 번에 대출 가능한 권수는 3권이다.
-■ 대출 중인 도서는 사용 불가하다.</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>도서대출</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>개발여부</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">도서를 등록하는 기능이다. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>대출중 : true , 대출가능 : false</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bookList</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>대출중 : true , 대출가능 : false</t>
-  </si>
-  <si>
-    <t>reserveList</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 연체중이면 true, 연체중 아니면 false</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1351,6 +1071,112 @@
   </si>
   <si>
     <t>오픈 등록한 계좌 목록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계좌 관리 서비스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뱅킹거래 서비스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>은행별 조회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뱅킹 거래 계좌 선택</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>통합계좌 프로그램</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>통합 계좌 프로그램에 로그인하는 기능이다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>통합 계좌 프로그램에 회원가입하는 기능이다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 중인 계정의 전체 계좌를 조회할 수 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>은행으로 검색하여 계좌를 조회할 수 있는 기능이다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계좌번호로 검색하여 계좌를 조회할 수 있는 기능이다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">계좌를 해지하는 기능이다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>새로운 계좌를 개설하는 기능이다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">통합 계좌 서비스 이용을 등록하는 기능이다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계좌 별칭을 수정할 수 있는 기능이다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">자신의 계좌 중, 뱅킹 거래 할 계좌를 선택하는 기능이다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">자신의 계좌에 돈을 입금할 수 있는 기능이다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">자신의 계좌에서 돈을 출금할 수 있는 기능이다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">다른 계좌에 돈을 이체할 수 있는 기능이다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발여부</t>
+  </si>
+  <si>
+    <t>태스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">통합 계좌 프로그램에서 로그아웃 하는 기능이다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>■ 계좌 개설 시, 1000원 이상 입력되어야 한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>■ 잔액이 존재하면 해지가 불가능하다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>■ 0원 이상만 출금 가능하다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>■ 0원 이상만 이체 가능하다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1362,7 +1188,7 @@
     <numFmt numFmtId="176" formatCode="#,##0.0_);\(#,##0.0\)"/>
     <numFmt numFmtId="177" formatCode="000"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="돋움"/>
@@ -1478,19 +1304,6 @@
       <charset val="129"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FFFF0000"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <name val="돋움"/>
@@ -1498,7 +1311,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1525,31 +1338,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="52"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1565,8 +1354,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="59">
+  <borders count="67">
     <border>
       <left/>
       <right/>
@@ -1903,21 +1698,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -2133,15 +1913,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="hair">
         <color indexed="64"/>
       </left>
@@ -2184,17 +1955,6 @@
       <left style="hair">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -2272,36 +2032,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -2326,6 +2056,167 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2333,7 +2224,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2426,28 +2317,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2468,76 +2347,31 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2564,7 +2398,7 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2582,14 +2416,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2597,19 +2440,16 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2618,67 +2458,138 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="31" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="31" fontId="2" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="31" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="31" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3018,11 +2929,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E6FBF4-BB9C-4D09-B0C6-06E00A0A13FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E229CC-C169-4FDA-8FE5-39F64070B38C}">
   <dimension ref="B2:O40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3038,7 +2949,7 @@
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.15">
       <c r="H2" t="s">
-        <v>211</v>
+        <v>154</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -3056,207 +2967,213 @@
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>240</v>
+        <v>183</v>
       </c>
       <c r="O2" t="s">
-        <v>239</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>210</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.15">
       <c r="C6" t="s">
-        <v>209</v>
+        <v>152</v>
       </c>
       <c r="H6" t="s">
-        <v>212</v>
-      </c>
-      <c r="I6" s="116" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="116" t="s">
-        <v>51</v>
+        <v>155</v>
+      </c>
+      <c r="I6" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="70" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.15">
       <c r="D7" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.15">
       <c r="D8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.15">
       <c r="E9" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
       <c r="H9" t="s">
-        <v>230</v>
+        <v>173</v>
       </c>
       <c r="I9" t="s">
-        <v>228</v>
+        <v>171</v>
       </c>
       <c r="J9" t="s">
-        <v>251</v>
+        <v>194</v>
       </c>
       <c r="K9" t="s">
-        <v>229</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.15">
       <c r="E11" t="s">
-        <v>247</v>
+        <v>190</v>
       </c>
       <c r="I11" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="J11" t="s">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="K11" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="L11" t="s">
-        <v>130</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="F13" s="116" t="s">
-        <v>86</v>
-      </c>
-      <c r="H13" s="116" t="s">
-        <v>221</v>
+      <c r="F13" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="70" t="s">
+        <v>164</v>
       </c>
       <c r="I13" t="s">
-        <v>220</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="F14" s="116"/>
-      <c r="H14" s="117" t="s">
-        <v>252</v>
+      <c r="F14" s="70"/>
+      <c r="H14" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="I15" s="116" t="s">
-        <v>244</v>
+      <c r="I15" s="70" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="I16" s="117" t="s">
-        <v>245</v>
+      <c r="I16" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="5:12" x14ac:dyDescent="0.15">
-      <c r="F19" s="116" t="s">
-        <v>131</v>
+      <c r="F19" s="70" t="s">
+        <v>74</v>
       </c>
       <c r="H19" t="s">
-        <v>221</v>
+        <v>164</v>
       </c>
       <c r="I19" t="s">
-        <v>220</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="5:12" x14ac:dyDescent="0.15">
-      <c r="F21" s="116" t="s">
-        <v>83</v>
+      <c r="F21" s="70" t="s">
+        <v>26</v>
       </c>
       <c r="H21" t="s">
-        <v>221</v>
+        <v>164</v>
       </c>
       <c r="I21" t="s">
-        <v>220</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="5:12" x14ac:dyDescent="0.15">
-      <c r="I22" s="116" t="s">
-        <v>243</v>
+      <c r="I22" s="70" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="5:12" x14ac:dyDescent="0.15">
       <c r="I23" t="s">
-        <v>249</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24" spans="5:12" x14ac:dyDescent="0.15">
       <c r="I24" t="s">
-        <v>250</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25" spans="5:12" x14ac:dyDescent="0.15">
-      <c r="F25" s="116" t="s">
-        <v>130</v>
+      <c r="F25" s="70" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="5:12" x14ac:dyDescent="0.15">
       <c r="F27" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="5:12" x14ac:dyDescent="0.15">
       <c r="E28" t="s">
-        <v>219</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="5:12" x14ac:dyDescent="0.15">
+      <c r="E30" t="s">
+        <v>174</v>
+      </c>
       <c r="H30" t="s">
-        <v>212</v>
+        <v>155</v>
       </c>
       <c r="I30" t="s">
-        <v>215</v>
+        <v>158</v>
       </c>
       <c r="J30" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="K30" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="L30" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="5:12" x14ac:dyDescent="0.15">
-      <c r="F32" s="116" t="s">
-        <v>90</v>
+      <c r="E32" t="s">
+        <v>190</v>
+      </c>
+      <c r="F32" s="70" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="6:9" x14ac:dyDescent="0.15">
       <c r="I33" t="s">
-        <v>217</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="6:9" x14ac:dyDescent="0.15">
-      <c r="F35" s="116" t="s">
-        <v>91</v>
+      <c r="F35" s="70" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="6:9" x14ac:dyDescent="0.15">
       <c r="I36" t="s">
-        <v>217</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="6:9" x14ac:dyDescent="0.15">
-      <c r="F38" s="116" t="s">
-        <v>216</v>
+      <c r="F38" s="70" t="s">
+        <v>159</v>
       </c>
       <c r="I38" t="s">
-        <v>248</v>
+        <v>191</v>
       </c>
     </row>
     <row r="39" spans="6:9" x14ac:dyDescent="0.15">
       <c r="I39" t="s">
-        <v>214</v>
+        <v>157</v>
       </c>
     </row>
     <row r="40" spans="6:9" x14ac:dyDescent="0.15">
       <c r="I40" t="s">
-        <v>213</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -3267,6 +3184,261 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E6FBF4-BB9C-4D09-B0C6-06E00A0A13FF}">
+  <dimension ref="B2:O40"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="5" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="H2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
+        <v>4</v>
+      </c>
+      <c r="M2">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>183</v>
+      </c>
+      <c r="O2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H6" t="s">
+        <v>155</v>
+      </c>
+      <c r="I6" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="70" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="E9" t="s">
+        <v>174</v>
+      </c>
+      <c r="H9" t="s">
+        <v>173</v>
+      </c>
+      <c r="I9" t="s">
+        <v>171</v>
+      </c>
+      <c r="J9" t="s">
+        <v>194</v>
+      </c>
+      <c r="K9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="E11" t="s">
+        <v>190</v>
+      </c>
+      <c r="I11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" t="s">
+        <v>74</v>
+      </c>
+      <c r="K11" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="F13" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="70" t="s">
+        <v>164</v>
+      </c>
+      <c r="I13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="F14" s="70"/>
+      <c r="H14" s="71" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="I15" s="70" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="I16" s="71" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19" spans="5:12" x14ac:dyDescent="0.15">
+      <c r="F19" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="H19" t="s">
+        <v>164</v>
+      </c>
+      <c r="I19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21" spans="5:12" x14ac:dyDescent="0.15">
+      <c r="F21" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" t="s">
+        <v>164</v>
+      </c>
+      <c r="I21" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="22" spans="5:12" x14ac:dyDescent="0.15">
+      <c r="I22" s="70" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23" spans="5:12" x14ac:dyDescent="0.15">
+      <c r="I23" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="24" spans="5:12" x14ac:dyDescent="0.15">
+      <c r="I24" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="25" spans="5:12" x14ac:dyDescent="0.15">
+      <c r="F25" s="70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="5:12" x14ac:dyDescent="0.15">
+      <c r="F27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="5:12" x14ac:dyDescent="0.15">
+      <c r="E28" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="30" spans="5:12" x14ac:dyDescent="0.15">
+      <c r="E30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H30" t="s">
+        <v>155</v>
+      </c>
+      <c r="I30" t="s">
+        <v>158</v>
+      </c>
+      <c r="J30" t="s">
+        <v>33</v>
+      </c>
+      <c r="K30" t="s">
+        <v>34</v>
+      </c>
+      <c r="L30" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="32" spans="5:12" x14ac:dyDescent="0.15">
+      <c r="E32" t="s">
+        <v>190</v>
+      </c>
+      <c r="F32" s="70" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="6:9" x14ac:dyDescent="0.15">
+      <c r="I33" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="35" spans="6:9" x14ac:dyDescent="0.15">
+      <c r="F35" s="70" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="6:9" x14ac:dyDescent="0.15">
+      <c r="I36" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="38" spans="6:9" x14ac:dyDescent="0.15">
+      <c r="F38" s="70" t="s">
+        <v>159</v>
+      </c>
+      <c r="I38" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="39" spans="6:9" x14ac:dyDescent="0.15">
+      <c r="I39" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="40" spans="6:9" x14ac:dyDescent="0.15">
+      <c r="I40" t="s">
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8026384-AD76-4A8C-9119-D0FEDF7DAF54}">
   <dimension ref="C2:S55"/>
   <sheetViews>
@@ -3290,16 +3462,16 @@
   <sheetData>
     <row r="2" spans="3:19" x14ac:dyDescent="0.15">
       <c r="E2" t="s">
-        <v>242</v>
+        <v>185</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="K2" t="s">
-        <v>241</v>
+        <v>184</v>
       </c>
       <c r="L2" t="s">
-        <v>211</v>
+        <v>154</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -3317,30 +3489,30 @@
         <v>5</v>
       </c>
       <c r="R2" t="s">
-        <v>240</v>
+        <v>183</v>
       </c>
       <c r="S2" t="s">
-        <v>239</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="3:19" x14ac:dyDescent="0.15">
       <c r="C3" t="s">
-        <v>210</v>
+        <v>153</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>209</v>
+        <v>152</v>
       </c>
       <c r="L3" t="s">
-        <v>212</v>
+        <v>155</v>
       </c>
       <c r="M3" t="s">
-        <v>238</v>
+        <v>181</v>
       </c>
       <c r="N3" t="s">
-        <v>218</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="3:19" x14ac:dyDescent="0.15">
@@ -3348,222 +3520,222 @@
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>237</v>
+        <v>180</v>
       </c>
       <c r="L5" t="s">
-        <v>212</v>
+        <v>155</v>
       </c>
       <c r="M5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N5" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="3:19" x14ac:dyDescent="0.15">
       <c r="G7" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="J7" t="s">
-        <v>236</v>
+        <v>179</v>
       </c>
       <c r="K7" t="s">
-        <v>232</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="3:19" x14ac:dyDescent="0.15">
       <c r="J8" t="s">
-        <v>235</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="3:19" x14ac:dyDescent="0.15">
       <c r="G14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J14" t="s">
-        <v>234</v>
+        <v>177</v>
       </c>
       <c r="K14" t="s">
-        <v>232</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="3:19" x14ac:dyDescent="0.15">
       <c r="J15" t="s">
-        <v>233</v>
+        <v>176</v>
       </c>
       <c r="K15" t="s">
-        <v>232</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="8:16" x14ac:dyDescent="0.15">
       <c r="H18" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
       <c r="L18" t="s">
-        <v>230</v>
+        <v>173</v>
       </c>
       <c r="M18" t="s">
-        <v>228</v>
+        <v>171</v>
       </c>
       <c r="N18" t="s">
-        <v>227</v>
+        <v>170</v>
       </c>
       <c r="O18" t="s">
-        <v>229</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="8:16" x14ac:dyDescent="0.15">
       <c r="H20" t="s">
-        <v>228</v>
+        <v>171</v>
       </c>
       <c r="M20" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="N20" t="s">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="O20" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="P20" t="s">
-        <v>130</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="8:16" x14ac:dyDescent="0.15">
       <c r="I22" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="L22" t="s">
-        <v>221</v>
+        <v>164</v>
       </c>
       <c r="M22" t="s">
-        <v>220</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="8:16" x14ac:dyDescent="0.15">
       <c r="M23" t="s">
-        <v>223</v>
+        <v>166</v>
       </c>
       <c r="N23" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="8:16" x14ac:dyDescent="0.15">
       <c r="I25" t="s">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="L25" t="s">
-        <v>221</v>
+        <v>164</v>
       </c>
       <c r="M25" t="s">
-        <v>220</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="8:16" x14ac:dyDescent="0.15">
       <c r="I27" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="L27" t="s">
-        <v>221</v>
+        <v>164</v>
       </c>
       <c r="M27" t="s">
-        <v>220</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="8:16" x14ac:dyDescent="0.15">
       <c r="I29" t="s">
-        <v>130</v>
+        <v>73</v>
       </c>
       <c r="J29" t="s">
-        <v>246</v>
+        <v>189</v>
       </c>
       <c r="K29" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="8:16" x14ac:dyDescent="0.15">
       <c r="H31" t="s">
-        <v>227</v>
+        <v>170</v>
       </c>
       <c r="I31" t="s">
-        <v>226</v>
+        <v>169</v>
       </c>
       <c r="M31" t="s">
-        <v>122</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="4:16" x14ac:dyDescent="0.15">
       <c r="I33" t="s">
-        <v>225</v>
+        <v>168</v>
       </c>
       <c r="L33" t="s">
-        <v>224</v>
+        <v>167</v>
       </c>
       <c r="M33" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="N33" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="O33" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="P33" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="4:16" x14ac:dyDescent="0.15">
       <c r="I35" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="L35" t="s">
-        <v>221</v>
+        <v>164</v>
       </c>
       <c r="M35" t="s">
-        <v>220</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="4:16" x14ac:dyDescent="0.15">
       <c r="M36" t="s">
-        <v>223</v>
+        <v>166</v>
       </c>
       <c r="N36" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="O36" t="s">
-        <v>222</v>
+        <v>165</v>
       </c>
     </row>
     <row r="38" spans="4:16" x14ac:dyDescent="0.15">
       <c r="I38" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="L38" t="s">
-        <v>221</v>
+        <v>164</v>
       </c>
       <c r="M38" t="s">
-        <v>220</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="4:16" x14ac:dyDescent="0.15">
       <c r="I40" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="L40" t="s">
-        <v>221</v>
+        <v>164</v>
       </c>
       <c r="M40" t="s">
-        <v>220</v>
+        <v>163</v>
       </c>
     </row>
     <row r="42" spans="4:16" x14ac:dyDescent="0.15">
       <c r="I42" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="4:16" x14ac:dyDescent="0.15">
       <c r="H43" t="s">
-        <v>219</v>
+        <v>162</v>
       </c>
     </row>
     <row r="45" spans="4:16" x14ac:dyDescent="0.15">
@@ -3571,66 +3743,66 @@
         <v>3</v>
       </c>
       <c r="F45" t="s">
-        <v>218</v>
+        <v>161</v>
       </c>
       <c r="L45" t="s">
-        <v>212</v>
+        <v>155</v>
       </c>
       <c r="M45" t="s">
-        <v>215</v>
+        <v>158</v>
       </c>
       <c r="N45" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="O45" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="P45" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
     </row>
     <row r="47" spans="4:16" x14ac:dyDescent="0.15">
       <c r="G47" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="M47" t="s">
-        <v>215</v>
+        <v>158</v>
       </c>
     </row>
     <row r="48" spans="4:16" x14ac:dyDescent="0.15">
       <c r="M48" t="s">
-        <v>217</v>
+        <v>160</v>
       </c>
     </row>
     <row r="50" spans="7:13" x14ac:dyDescent="0.15">
       <c r="G50" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="M50" t="s">
-        <v>215</v>
+        <v>158</v>
       </c>
     </row>
     <row r="51" spans="7:13" x14ac:dyDescent="0.15">
       <c r="M51" t="s">
-        <v>217</v>
+        <v>160</v>
       </c>
     </row>
     <row r="53" spans="7:13" x14ac:dyDescent="0.15">
       <c r="G53" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="M53" t="s">
-        <v>215</v>
+        <v>158</v>
       </c>
     </row>
     <row r="54" spans="7:13" x14ac:dyDescent="0.15">
       <c r="M54" t="s">
-        <v>214</v>
+        <v>157</v>
       </c>
     </row>
     <row r="55" spans="7:13" x14ac:dyDescent="0.15">
       <c r="M55" t="s">
-        <v>213</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -3639,7 +3811,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
@@ -3664,12 +3836,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74"/>
     </row>
     <row r="3" spans="2:5" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3713,10 +3885,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E9" s="30" t="s">
         <v>12</v>
@@ -3833,43 +4005,46 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:G7"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.77734375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.77734375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="19.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" style="6" customWidth="1"/>
-    <col min="6" max="7" width="40.21875" style="6" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="6"/>
+    <col min="2" max="2" width="13.44140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" style="6" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="6.44140625" style="6" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="40.21875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="30" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5"/>
     </row>
-    <row r="2" spans="1:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
-      <c r="B2" s="92" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="94"/>
-    </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="75" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="77"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5"/>
       <c r="B3" s="7" t="s">
         <v>3</v>
@@ -3877,29 +4052,31 @@
       <c r="C3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="95" t="s">
+      <c r="D3" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="97"/>
-    </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="80"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="9" t="s">
-        <v>17</v>
+        <v>200</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="98">
-        <v>44321</v>
-      </c>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="100"/>
-    </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="D4" s="81">
+        <v>44351</v>
+      </c>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="83"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="11"/>
       <c r="C5" s="5"/>
@@ -3907,520 +4084,360 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5"/>
-      <c r="B6" s="108" t="s">
+      <c r="B6" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="106" t="s">
+      <c r="C6" s="87"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="116" t="s">
+        <v>218</v>
+      </c>
+      <c r="F6" s="115"/>
+      <c r="G6" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="110" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H6" s="88" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="27" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="F7" s="107"/>
-      <c r="G7" s="111"/>
-    </row>
-    <row r="8" spans="1:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+        <v>215</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="G7" s="85"/>
+      <c r="H7" s="89"/>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5"/>
-      <c r="B8" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="42" t="s">
+      <c r="B8" s="122" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="42"/>
+      <c r="E8" s="108" t="s">
+        <v>201</v>
+      </c>
+      <c r="F8" s="39"/>
+      <c r="G8" s="45" t="s">
+        <v>202</v>
+      </c>
+      <c r="H8" s="50"/>
+      <c r="I8" s="12"/>
+    </row>
+    <row r="9" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="5"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="93" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="94"/>
+      <c r="E9" s="109"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="95" t="s">
+        <v>217</v>
+      </c>
+      <c r="H9" s="96"/>
+      <c r="I9" s="12"/>
+    </row>
+    <row r="10" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="43"/>
+      <c r="E10" s="110" t="s">
+        <v>201</v>
+      </c>
+      <c r="F10" s="40"/>
+      <c r="G10" s="46" t="s">
+        <v>203</v>
+      </c>
+      <c r="H10" s="52"/>
+      <c r="I10" s="12"/>
+    </row>
+    <row r="11" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="5"/>
+      <c r="B11" s="122" t="s">
+        <v>196</v>
+      </c>
+      <c r="C11" s="97" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="111" t="s">
+        <v>201</v>
+      </c>
+      <c r="F11" s="47"/>
+      <c r="G11" s="120" t="s">
+        <v>204</v>
+      </c>
+      <c r="H11" s="103"/>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="5"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="91" t="s">
+        <v>198</v>
+      </c>
+      <c r="E12" s="112" t="s">
+        <v>201</v>
+      </c>
+      <c r="F12" s="48"/>
+      <c r="G12" s="119" t="s">
+        <v>205</v>
+      </c>
+      <c r="H12" s="36"/>
+    </row>
+    <row r="13" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="5"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="91" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="112" t="s">
+        <v>201</v>
+      </c>
+      <c r="F13" s="48"/>
+      <c r="G13" s="119" t="s">
+        <v>206</v>
+      </c>
+      <c r="H13" s="36"/>
+    </row>
+    <row r="14" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="5"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="100" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="40"/>
+      <c r="E14" s="112" t="s">
+        <v>201</v>
+      </c>
+      <c r="F14" s="48"/>
+      <c r="G14" s="119" t="s">
+        <v>207</v>
+      </c>
+      <c r="H14" s="36" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="5"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="100" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="40"/>
+      <c r="E15" s="113" t="s">
+        <v>201</v>
+      </c>
+      <c r="F15" s="40"/>
+      <c r="G15" s="121" t="s">
+        <v>208</v>
+      </c>
+      <c r="H15" s="51" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="5"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="101" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="91"/>
+      <c r="E16" s="112" t="s">
+        <v>201</v>
+      </c>
+      <c r="F16" s="40"/>
+      <c r="G16" s="117" t="s">
+        <v>209</v>
+      </c>
+      <c r="H16" s="92"/>
+    </row>
+    <row r="17" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+      <c r="B17" s="104"/>
+      <c r="C17" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="46"/>
-      <c r="E8" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="62"/>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="1:8" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="47"/>
-      <c r="E9" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="71" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="1:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="5"/>
-      <c r="B10" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="104" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="56" t="s">
+      <c r="D17" s="105"/>
+      <c r="E17" s="114" t="s">
+        <v>201</v>
+      </c>
+      <c r="F17" s="106"/>
+      <c r="G17" s="118" t="s">
+        <v>210</v>
+      </c>
+      <c r="H17" s="107"/>
+    </row>
+    <row r="18" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="5"/>
+      <c r="B18" s="123" t="s">
+        <v>197</v>
+      </c>
+      <c r="C18" s="101" t="s">
+        <v>199</v>
+      </c>
+      <c r="D18" s="91"/>
+      <c r="E18" s="112" t="s">
+        <v>201</v>
+      </c>
+      <c r="F18" s="91"/>
+      <c r="G18" s="119" t="s">
+        <v>211</v>
+      </c>
+      <c r="H18" s="36"/>
+    </row>
+    <row r="19" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="5"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="100" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="40"/>
+      <c r="E19" s="112" t="s">
+        <v>201</v>
+      </c>
+      <c r="F19" s="91"/>
+      <c r="G19" s="119" t="s">
+        <v>212</v>
+      </c>
+      <c r="H19" s="36"/>
+    </row>
+    <row r="20" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="5"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="100" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="40"/>
-    </row>
-    <row r="11" spans="1:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="5"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="105"/>
-      <c r="D11" s="66" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="40"/>
-    </row>
-    <row r="12" spans="1:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="5"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="112" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="48"/>
-      <c r="G12" s="40"/>
-    </row>
-    <row r="13" spans="1:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="5"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="113"/>
-      <c r="D13" s="63" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="48"/>
-      <c r="G13" s="37" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="5"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="114"/>
-      <c r="D14" s="63" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="48"/>
-      <c r="G14" s="40"/>
-    </row>
-    <row r="15" spans="1:8" ht="42" x14ac:dyDescent="0.15">
-      <c r="A15" s="5"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="101" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="64" t="s">
-        <v>76</v>
-      </c>
-      <c r="E15" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="67" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="21.75" x14ac:dyDescent="0.15">
-      <c r="A16" s="5"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="64" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="F16" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" s="35" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="103"/>
-      <c r="D17" s="64" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="36" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="5"/>
-      <c r="B18" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="104" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="56" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" s="40"/>
-    </row>
-    <row r="19" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="5"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="105"/>
-      <c r="D19" s="66" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" s="40"/>
-    </row>
-    <row r="20" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="5"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="112" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="48"/>
-      <c r="G20" s="40"/>
-    </row>
-    <row r="21" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D20" s="40"/>
+      <c r="E20" s="112" t="s">
+        <v>201</v>
+      </c>
+      <c r="F20" s="91"/>
+      <c r="G20" s="119" t="s">
+        <v>213</v>
+      </c>
+      <c r="H20" s="36" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="113"/>
-      <c r="D21" s="63" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="57" t="s">
-        <v>61</v>
-      </c>
-      <c r="F21" s="48"/>
-      <c r="G21" s="40"/>
-    </row>
-    <row r="22" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="37"/>
+      <c r="C21" s="102" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="106"/>
+      <c r="E21" s="114" t="s">
+        <v>201</v>
+      </c>
+      <c r="F21" s="49"/>
+      <c r="G21" s="118" t="s">
+        <v>214</v>
+      </c>
+      <c r="H21" s="34" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="114"/>
-      <c r="D22" s="63" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="F22" s="48"/>
-      <c r="G22" s="40"/>
-    </row>
-    <row r="23" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+    </row>
+    <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="5"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="112" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" s="63" t="s">
-        <v>66</v>
-      </c>
-      <c r="E23" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="48"/>
-      <c r="G23" s="40"/>
-    </row>
-    <row r="24" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="5"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="113"/>
-      <c r="D24" s="63" t="s">
-        <v>69</v>
-      </c>
-      <c r="E24" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="48"/>
-      <c r="G24" s="40"/>
-    </row>
-    <row r="25" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="5"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="114"/>
-      <c r="D25" s="63" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="48"/>
-      <c r="G25" s="40"/>
-    </row>
-    <row r="26" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="5"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="112" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26" s="63" t="s">
-        <v>68</v>
-      </c>
-      <c r="E26" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="48"/>
-      <c r="G26" s="40"/>
-    </row>
-    <row r="27" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G26" s="44"/>
+    </row>
+    <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="5"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="113"/>
-      <c r="D27" s="63" t="s">
-        <v>70</v>
-      </c>
-      <c r="E27" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="F27" s="48"/>
-      <c r="G27" s="70" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="114"/>
-      <c r="D28" s="63" t="s">
-        <v>67</v>
-      </c>
-      <c r="E28" s="57" t="s">
-        <v>75</v>
-      </c>
-      <c r="F28" s="48"/>
-      <c r="G28" s="40"/>
-    </row>
-    <row r="29" spans="1:7" ht="21" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="101" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="68" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" s="58" t="s">
-        <v>78</v>
-      </c>
-      <c r="G29" s="35"/>
-    </row>
-    <row r="30" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="30" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="5"/>
-      <c r="B30" s="38"/>
-      <c r="C30" s="102"/>
-      <c r="D30" s="68" t="s">
-        <v>59</v>
-      </c>
-      <c r="E30" s="59" t="s">
-        <v>62</v>
-      </c>
-      <c r="F30" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="G30" s="50" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="31.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="31" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5"/>
-      <c r="B31" s="38"/>
-      <c r="C31" s="102"/>
-      <c r="D31" s="68" t="s">
-        <v>30</v>
-      </c>
-      <c r="E31" s="59" t="s">
-        <v>62</v>
-      </c>
-      <c r="F31" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="50" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="103"/>
-      <c r="D32" s="69" t="s">
-        <v>31</v>
-      </c>
-      <c r="E32" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="F32" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="G32" s="54"/>
-    </row>
-    <row r="33" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="33" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="5"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-    </row>
-    <row r="34" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="1:1" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="5"/>
     </row>
-    <row r="35" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="5"/>
-      <c r="F35" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="36" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="5"/>
-      <c r="F36" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="37" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="5"/>
-      <c r="F37" s="51"/>
-    </row>
-    <row r="38" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="38" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="5"/>
     </row>
-    <row r="39" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="5"/>
     </row>
-    <row r="40" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="5"/>
     </row>
-    <row r="41" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="5"/>
-    </row>
-    <row r="42" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="5"/>
-    </row>
-    <row r="43" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="5"/>
-    </row>
-    <row r="44" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="5"/>
-    </row>
-    <row r="45" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="5"/>
-    </row>
-    <row r="46" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="5"/>
-    </row>
-    <row r="47" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="5"/>
-    </row>
-    <row r="48" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="5"/>
-    </row>
-    <row r="49" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="5"/>
-    </row>
-    <row r="50" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="5"/>
-    </row>
-    <row r="51" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="5"/>
-    </row>
-    <row r="52" spans="1:1" ht="75.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="1:1" ht="75.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="B6:E6"/>
+  <mergeCells count="8">
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="C11:C13"/>
     <mergeCell ref="G6:G7"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="H6:H7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.51181102362204722" footer="0"/>
@@ -4429,7 +4446,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACEBC18A-9F4C-4819-A11D-9F775E0B32F3}">
   <dimension ref="A1:G77"/>
   <sheetViews>
@@ -4455,314 +4472,314 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="F1" s="106" t="s">
+      <c r="F1" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="110" t="s">
-        <v>35</v>
+      <c r="G1" s="88" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="B2" s="27" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="F2" s="107"/>
-      <c r="G2" s="111"/>
+        <v>49</v>
+      </c>
+      <c r="F2" s="85"/>
+      <c r="G2" s="89"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A6" s="72" t="s">
-        <v>133</v>
+      <c r="A6" s="53" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>120</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>117</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C9" t="s">
-        <v>118</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C11" t="s">
-        <v>119</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>129</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C15" t="s">
-        <v>131</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C17" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C19" t="s">
-        <v>130</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C21" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C23" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C25" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C27" t="s">
-        <v>134</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C29" t="s">
-        <v>135</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C31" t="s">
-        <v>136</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="C33" t="s">
-        <v>122</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C35" t="s">
-        <v>123</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C37" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="D37" t="s">
-        <v>115</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C39" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="D39" t="s">
-        <v>100</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D40" t="s">
-        <v>99</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D41" t="s">
-        <v>101</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C43" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="D43" t="s">
-        <v>96</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D44" t="s">
-        <v>97</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D45" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C47" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="D47" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D48" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D49" t="s">
-        <v>88</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C51" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="D51" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="E51" t="s">
-        <v>107</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C54" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="D54" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="E54" t="s">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="G54" t="s">
-        <v>132</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C57" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="D57" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="E57" t="s">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="G57" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="3:7" x14ac:dyDescent="0.15">
       <c r="G58" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" spans="3:7" x14ac:dyDescent="0.15">
       <c r="G59" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
     </row>
     <row r="60" spans="3:7" x14ac:dyDescent="0.15">
       <c r="G60" t="s">
-        <v>132</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C62" t="s">
-        <v>130</v>
+        <v>73</v>
       </c>
       <c r="D62" t="s">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="G62" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
     </row>
     <row r="63" spans="3:7" x14ac:dyDescent="0.15">
       <c r="G63" t="s">
-        <v>116</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C64" t="s">
-        <v>137</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A67" s="72" t="s">
-        <v>124</v>
+      <c r="A67" s="53" t="s">
+        <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="C67" t="s">
-        <v>110</v>
+        <v>53</v>
       </c>
       <c r="D67" t="s">
-        <v>114</v>
+        <v>57</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B69" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="C69" t="s">
-        <v>128</v>
+        <v>71</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B71" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="C71" t="s">
-        <v>111</v>
+        <v>54</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C73" t="s">
-        <v>112</v>
+        <v>55</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C75" t="s">
-        <v>113</v>
+        <v>56</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B77" t="s">
-        <v>138</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -4776,7 +4793,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0648187D-EAEA-479B-9030-8E45E6D42BC8}">
   <dimension ref="A1:P69"/>
   <sheetViews>
@@ -4800,868 +4817,868 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="84" t="s">
-        <v>189</v>
+      <c r="A1" s="65" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>185</v>
-      </c>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
+        <v>128</v>
+      </c>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A3" s="73" t="s">
-        <v>186</v>
-      </c>
-      <c r="B3" s="73" t="s">
-        <v>194</v>
-      </c>
-      <c r="C3" s="73" t="s">
-        <v>176</v>
-      </c>
-      <c r="D3" s="74" t="s">
-        <v>190</v>
-      </c>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
+      <c r="A3" s="54" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="55" t="s">
+        <v>133</v>
+      </c>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A4" s="73"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A5" s="75"/>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
+      <c r="A5" s="56"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
     </row>
     <row r="6" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="85" t="s">
-        <v>168</v>
-      </c>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
+      <c r="A6" s="66" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>149</v>
-      </c>
-      <c r="F7" s="115" t="s">
-        <v>195</v>
-      </c>
-      <c r="G7" s="115"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
+        <v>92</v>
+      </c>
+      <c r="F7" s="90" t="s">
+        <v>138</v>
+      </c>
+      <c r="G7" s="90"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A8" s="73" t="s">
-        <v>151</v>
-      </c>
-      <c r="B8" s="73" t="s">
-        <v>187</v>
-      </c>
-      <c r="C8" s="73" t="s">
-        <v>150</v>
-      </c>
-      <c r="D8" s="73" t="s">
-        <v>147</v>
-      </c>
-      <c r="E8" s="73" t="s">
-        <v>144</v>
-      </c>
-      <c r="F8" s="73" t="s">
-        <v>145</v>
-      </c>
-      <c r="G8" s="73" t="s">
-        <v>146</v>
-      </c>
-      <c r="H8" s="73" t="s">
-        <v>148</v>
-      </c>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
+      <c r="A8" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="H8" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A9" s="73"/>
-      <c r="B9" s="73"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="76"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="75"/>
-      <c r="B10" s="75"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="76"/>
+      <c r="A10" s="56"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>139</v>
-      </c>
-      <c r="I11" s="75"/>
-      <c r="J11" s="75"/>
+        <v>82</v>
+      </c>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
       <c r="L11" t="s">
-        <v>176</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A12" s="73" t="s">
-        <v>160</v>
-      </c>
-      <c r="B12" s="73" t="s">
-        <v>193</v>
-      </c>
-      <c r="C12" s="73" t="s">
-        <v>188</v>
-      </c>
-      <c r="D12" s="73" t="s">
-        <v>176</v>
-      </c>
-      <c r="E12" s="73" t="s">
-        <v>141</v>
-      </c>
-      <c r="F12" s="73" t="s">
-        <v>142</v>
-      </c>
-      <c r="G12" s="73" t="s">
-        <v>143</v>
-      </c>
-      <c r="H12" s="74" t="s">
-        <v>152</v>
-      </c>
-      <c r="I12" s="74" t="s">
-        <v>153</v>
-      </c>
-      <c r="J12" s="76"/>
-      <c r="K12" s="75"/>
-      <c r="L12" s="80" t="s">
-        <v>176</v>
-      </c>
-      <c r="M12" s="80" t="s">
-        <v>140</v>
+      <c r="A12" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="D12" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="E12" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="G12" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="H12" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="I12" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="J12" s="57"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="61" t="s">
+        <v>119</v>
+      </c>
+      <c r="M12" s="61" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A13" s="73"/>
-      <c r="B13" s="73"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="75"/>
-      <c r="L13" s="79">
+      <c r="A13" s="54"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="56"/>
+      <c r="L13" s="60">
         <v>0</v>
       </c>
-      <c r="M13" s="77" t="s">
-        <v>177</v>
+      <c r="M13" s="58" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="I14" s="75"/>
-      <c r="J14" s="75"/>
-      <c r="L14" s="79">
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="L14" s="60">
         <v>1</v>
       </c>
-      <c r="M14" s="77" t="s">
-        <v>178</v>
+      <c r="M14" s="58" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="I15" s="75"/>
-      <c r="J15" s="75"/>
-      <c r="L15" s="79">
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="L15" s="60">
         <v>2</v>
       </c>
-      <c r="M15" s="77" t="s">
-        <v>179</v>
+      <c r="M15" s="58" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="I16" s="75"/>
-      <c r="J16" s="75"/>
-      <c r="L16" s="79">
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="L16" s="60">
         <v>3</v>
       </c>
-      <c r="M16" s="82" t="s">
-        <v>180</v>
+      <c r="M16" s="63" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="L17" s="79">
+      <c r="L17" s="60">
         <v>4</v>
       </c>
-      <c r="M17" s="82" t="s">
-        <v>181</v>
+      <c r="M17" s="63" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A19" s="75"/>
-      <c r="B19" s="75"/>
-      <c r="C19" s="75"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
+      <c r="A19" s="56"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="C20" s="83" t="s">
-        <v>175</v>
+      <c r="C20" s="64" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>192</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A22" s="73" t="s">
-        <v>174</v>
-      </c>
-      <c r="B22" s="73" t="s">
-        <v>169</v>
-      </c>
-      <c r="C22" s="73" t="s">
-        <v>172</v>
-      </c>
-      <c r="D22" s="73" t="s">
-        <v>170</v>
-      </c>
-      <c r="E22" s="73" t="s">
-        <v>171</v>
-      </c>
-      <c r="F22" s="74" t="s">
-        <v>191</v>
-      </c>
-      <c r="G22" s="73" t="s">
-        <v>173</v>
+      <c r="A22" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="E22" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="F22" s="55" t="s">
+        <v>134</v>
+      </c>
+      <c r="G22" s="54" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A23" s="73"/>
-      <c r="B23" s="73"/>
-      <c r="C23" s="73"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="73"/>
+      <c r="A23" s="54"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>208</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A28" s="73" t="s">
-        <v>157</v>
-      </c>
-      <c r="B28" s="73" t="s">
-        <v>154</v>
-      </c>
-      <c r="C28" s="73" t="s">
-        <v>204</v>
-      </c>
-      <c r="D28" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="E28" s="74" t="s">
-        <v>205</v>
-      </c>
-      <c r="F28" s="74" t="s">
-        <v>206</v>
-      </c>
-      <c r="G28" s="76"/>
-      <c r="H28" s="75"/>
-      <c r="I28" s="76"/>
-      <c r="J28" s="76"/>
+      <c r="A28" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="D28" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28" s="55" t="s">
+        <v>148</v>
+      </c>
+      <c r="F28" s="55" t="s">
+        <v>149</v>
+      </c>
+      <c r="G28" s="57"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="57"/>
       <c r="L28" t="s">
-        <v>158</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A29" s="73"/>
-      <c r="B29" s="73"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="75"/>
-      <c r="H29" s="75"/>
-      <c r="I29" s="75"/>
-      <c r="J29" s="75"/>
-      <c r="L29" s="80" t="s">
-        <v>158</v>
-      </c>
-      <c r="M29" s="80" t="s">
+      <c r="A29" s="54"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="L29" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="M29" s="61" t="s">
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>184</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="L30" s="79">
+      <c r="L30" s="60">
         <v>0</v>
       </c>
-      <c r="M30" s="77" t="s">
-        <v>90</v>
+      <c r="M30" s="58" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="L31" s="79">
+      <c r="L31" s="60">
         <v>1</v>
       </c>
-      <c r="M31" s="77" t="s">
-        <v>91</v>
+      <c r="M31" s="58" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="L32" s="79">
+      <c r="L32" s="60">
         <v>2</v>
       </c>
-      <c r="M32" s="77" t="s">
-        <v>167</v>
+      <c r="M32" s="58" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A33" s="87" t="s">
-        <v>207</v>
-      </c>
-      <c r="K33" s="81"/>
-      <c r="L33" s="79">
+      <c r="A33" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="K33" s="62"/>
+      <c r="L33" s="60">
         <v>3</v>
       </c>
-      <c r="M33" s="82" t="s">
-        <v>182</v>
+      <c r="M33" s="63" t="s">
+        <v>125</v>
       </c>
       <c r="N33" t="s">
-        <v>183</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A34" s="86" t="s">
-        <v>90</v>
-      </c>
-      <c r="B34" s="75"/>
-      <c r="C34" s="75"/>
-      <c r="D34" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="E34" s="75"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="75"/>
-      <c r="K34" s="81"/>
-      <c r="L34" s="75"/>
+      <c r="A34" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="56"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="67" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+      <c r="K34" s="62"/>
+      <c r="L34" s="56"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>198</v>
+        <v>141</v>
       </c>
       <c r="B35" t="s">
-        <v>199</v>
-      </c>
-      <c r="C35" s="75"/>
+        <v>142</v>
+      </c>
+      <c r="C35" s="56"/>
       <c r="D35" t="s">
-        <v>198</v>
+        <v>141</v>
       </c>
       <c r="E35" t="s">
-        <v>199</v>
-      </c>
-      <c r="F35" s="76"/>
-      <c r="G35" s="75"/>
-      <c r="H35" s="75"/>
-      <c r="K35" s="75"/>
-      <c r="L35" s="75"/>
+        <v>142</v>
+      </c>
+      <c r="F35" s="57"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="56"/>
+      <c r="K35" s="56"/>
+      <c r="L35" s="56"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A36" s="75" t="s">
-        <v>197</v>
-      </c>
-      <c r="B36" s="75" t="s">
-        <v>200</v>
-      </c>
-      <c r="C36" s="75"/>
-      <c r="D36" s="75" t="s">
-        <v>200</v>
-      </c>
-      <c r="E36" s="75" t="s">
-        <v>197</v>
-      </c>
-      <c r="F36" s="75"/>
-      <c r="G36" s="75"/>
-      <c r="H36" s="75"/>
+      <c r="A36" s="56" t="s">
+        <v>140</v>
+      </c>
+      <c r="B36" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="C36" s="56"/>
+      <c r="D36" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="E36" s="56" t="s">
+        <v>140</v>
+      </c>
+      <c r="F36" s="56"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="56"/>
       <c r="L36" t="s">
-        <v>159</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="F37" s="75"/>
-      <c r="G37" s="75"/>
-      <c r="H37" s="75"/>
-      <c r="L37" s="80" t="s">
-        <v>156</v>
-      </c>
-      <c r="M37" s="80" t="s">
+      <c r="F37" s="56"/>
+      <c r="G37" s="56"/>
+      <c r="H37" s="56"/>
+      <c r="L37" s="61" t="s">
+        <v>99</v>
+      </c>
+      <c r="M37" s="61" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A38" s="75"/>
-      <c r="B38" s="75"/>
-      <c r="C38" s="75"/>
-      <c r="D38" s="75"/>
-      <c r="E38" s="75"/>
-      <c r="F38" s="75"/>
-      <c r="G38" s="75"/>
-      <c r="H38" s="75"/>
-      <c r="L38" s="79">
+      <c r="A38" s="56"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="56"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="56"/>
+      <c r="L38" s="60">
         <v>0</v>
       </c>
-      <c r="M38" s="73" t="s">
-        <v>161</v>
+      <c r="M38" s="54" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A39" s="88" t="s">
-        <v>92</v>
-      </c>
-      <c r="C39" s="75"/>
-      <c r="F39" s="76"/>
-      <c r="G39" s="75"/>
-      <c r="H39" s="75"/>
-      <c r="L39" s="79">
+      <c r="A39" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="56"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="56"/>
+      <c r="H39" s="56"/>
+      <c r="L39" s="60">
         <v>1</v>
       </c>
-      <c r="M39" s="73" t="s">
-        <v>162</v>
+      <c r="M39" s="54" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A40" s="86" t="s">
-        <v>203</v>
-      </c>
-      <c r="B40" s="75"/>
-      <c r="C40" s="75"/>
-      <c r="D40" s="86" t="s">
-        <v>201</v>
-      </c>
-      <c r="E40" s="75"/>
-      <c r="F40" s="76"/>
-      <c r="G40" s="75"/>
-      <c r="H40" s="75"/>
-      <c r="L40" s="79">
+      <c r="A40" s="67" t="s">
+        <v>146</v>
+      </c>
+      <c r="B40" s="56"/>
+      <c r="C40" s="56"/>
+      <c r="D40" s="67" t="s">
+        <v>144</v>
+      </c>
+      <c r="E40" s="56"/>
+      <c r="F40" s="57"/>
+      <c r="G40" s="56"/>
+      <c r="H40" s="56"/>
+      <c r="L40" s="60">
         <v>2</v>
       </c>
-      <c r="M40" s="73" t="s">
-        <v>163</v>
+      <c r="M40" s="54" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>198</v>
+        <v>141</v>
       </c>
       <c r="B41" t="s">
-        <v>199</v>
-      </c>
-      <c r="C41" s="75"/>
+        <v>142</v>
+      </c>
+      <c r="C41" s="56"/>
       <c r="D41" t="s">
-        <v>198</v>
+        <v>141</v>
       </c>
       <c r="E41" t="s">
-        <v>199</v>
-      </c>
-      <c r="F41" s="75"/>
-      <c r="G41" s="75"/>
-      <c r="H41" s="75"/>
-      <c r="L41" s="79">
+        <v>142</v>
+      </c>
+      <c r="F41" s="56"/>
+      <c r="G41" s="56"/>
+      <c r="H41" s="56"/>
+      <c r="L41" s="60">
         <v>3</v>
       </c>
-      <c r="M41" s="73" t="s">
-        <v>164</v>
+      <c r="M41" s="54" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A42" s="75" t="s">
-        <v>197</v>
-      </c>
-      <c r="B42" s="75" t="s">
-        <v>202</v>
-      </c>
-      <c r="C42" s="75"/>
-      <c r="D42" s="75" t="s">
-        <v>202</v>
-      </c>
-      <c r="E42" s="75" t="s">
-        <v>197</v>
-      </c>
-      <c r="F42" s="75"/>
-      <c r="G42" s="75"/>
-      <c r="H42" s="75"/>
-      <c r="L42" s="79">
+      <c r="A42" s="56" t="s">
+        <v>140</v>
+      </c>
+      <c r="B42" s="56" t="s">
+        <v>145</v>
+      </c>
+      <c r="C42" s="56"/>
+      <c r="D42" s="56" t="s">
+        <v>145</v>
+      </c>
+      <c r="E42" s="56" t="s">
+        <v>140</v>
+      </c>
+      <c r="F42" s="56"/>
+      <c r="G42" s="56"/>
+      <c r="H42" s="56"/>
+      <c r="L42" s="60">
         <v>4</v>
       </c>
-      <c r="M42" s="73" t="s">
-        <v>165</v>
+      <c r="M42" s="54" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="F43" s="75"/>
-      <c r="G43" s="75"/>
-      <c r="H43" s="76"/>
-      <c r="L43" s="79">
+      <c r="F43" s="56"/>
+      <c r="G43" s="56"/>
+      <c r="H43" s="57"/>
+      <c r="L43" s="60">
         <v>5</v>
       </c>
-      <c r="M43" s="73" t="s">
-        <v>166</v>
+      <c r="M43" s="54" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="F44" s="75"/>
-      <c r="G44" s="75"/>
-      <c r="H44" s="75"/>
-      <c r="I44" s="78"/>
-      <c r="J44" s="78"/>
+      <c r="F44" s="56"/>
+      <c r="G44" s="56"/>
+      <c r="H44" s="56"/>
+      <c r="I44" s="59"/>
+      <c r="J44" s="59"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="F45" s="75"/>
-      <c r="G45" s="75"/>
-      <c r="H45" s="75"/>
-      <c r="I45" s="78"/>
-      <c r="J45" s="78"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="56"/>
+      <c r="H45" s="56"/>
+      <c r="I45" s="59"/>
+      <c r="J45" s="59"/>
       <c r="L45" t="s">
-        <v>196</v>
+        <v>139</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A46" s="75"/>
-      <c r="B46" s="75"/>
-      <c r="C46" s="75"/>
-      <c r="D46" s="75"/>
-      <c r="E46" s="75"/>
-      <c r="F46" s="75"/>
-      <c r="G46" s="75"/>
-      <c r="H46" s="75"/>
-      <c r="I46" s="78"/>
-      <c r="J46" s="78"/>
-      <c r="L46" s="80" t="s">
-        <v>176</v>
-      </c>
-      <c r="M46" s="80" t="s">
-        <v>158</v>
-      </c>
-      <c r="N46" s="73" t="s">
-        <v>196</v>
+      <c r="A46" s="56"/>
+      <c r="B46" s="56"/>
+      <c r="C46" s="56"/>
+      <c r="D46" s="56"/>
+      <c r="E46" s="56"/>
+      <c r="F46" s="56"/>
+      <c r="G46" s="56"/>
+      <c r="H46" s="56"/>
+      <c r="I46" s="59"/>
+      <c r="J46" s="59"/>
+      <c r="L46" s="61" t="s">
+        <v>119</v>
+      </c>
+      <c r="M46" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="N46" s="54" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="L47" s="79">
+      <c r="L47" s="60">
         <v>0</v>
       </c>
-      <c r="M47" s="79">
+      <c r="M47" s="60">
         <v>0</v>
       </c>
-      <c r="N47" s="77">
+      <c r="N47" s="58">
         <v>100</v>
       </c>
-      <c r="O47" s="75"/>
-      <c r="P47" s="75"/>
+      <c r="O47" s="56"/>
+      <c r="P47" s="56"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="L48" s="73"/>
-      <c r="M48" s="79">
+      <c r="L48" s="54"/>
+      <c r="M48" s="60">
         <v>1</v>
       </c>
-      <c r="N48" s="77">
+      <c r="N48" s="58">
         <v>100</v>
       </c>
-      <c r="O48" s="75"/>
-      <c r="P48" s="75"/>
+      <c r="O48" s="56"/>
+      <c r="P48" s="56"/>
     </row>
     <row r="49" spans="11:16" x14ac:dyDescent="0.15">
-      <c r="L49" s="73"/>
-      <c r="M49" s="79">
+      <c r="L49" s="54"/>
+      <c r="M49" s="60">
         <v>2</v>
       </c>
-      <c r="N49" s="77">
+      <c r="N49" s="58">
         <v>100</v>
       </c>
-      <c r="O49" s="75"/>
-      <c r="P49" s="75"/>
+      <c r="O49" s="56"/>
+      <c r="P49" s="56"/>
     </row>
     <row r="50" spans="11:16" x14ac:dyDescent="0.15">
-      <c r="K50" s="81"/>
-      <c r="L50" s="73"/>
-      <c r="M50" s="79">
+      <c r="K50" s="62"/>
+      <c r="L50" s="54"/>
+      <c r="M50" s="60">
         <v>3</v>
       </c>
-      <c r="N50" s="77">
+      <c r="N50" s="58">
         <v>100</v>
       </c>
-      <c r="O50" s="75"/>
-      <c r="P50" s="75"/>
+      <c r="O50" s="56"/>
+      <c r="P50" s="56"/>
     </row>
     <row r="51" spans="11:16" x14ac:dyDescent="0.15">
-      <c r="L51" s="79">
+      <c r="L51" s="60">
         <v>1</v>
       </c>
-      <c r="M51" s="79">
+      <c r="M51" s="60">
         <v>0</v>
       </c>
-      <c r="N51" s="77">
+      <c r="N51" s="58">
         <v>100</v>
       </c>
-      <c r="O51" s="75"/>
-      <c r="P51" s="75"/>
+      <c r="O51" s="56"/>
+      <c r="P51" s="56"/>
     </row>
     <row r="52" spans="11:16" x14ac:dyDescent="0.15">
-      <c r="L52" s="73"/>
-      <c r="M52" s="79">
+      <c r="L52" s="54"/>
+      <c r="M52" s="60">
         <v>1</v>
       </c>
-      <c r="N52" s="77">
+      <c r="N52" s="58">
         <v>100</v>
       </c>
-      <c r="O52" s="75"/>
-      <c r="P52" s="75"/>
+      <c r="O52" s="56"/>
+      <c r="P52" s="56"/>
     </row>
     <row r="53" spans="11:16" x14ac:dyDescent="0.15">
-      <c r="L53" s="73"/>
-      <c r="M53" s="79">
+      <c r="L53" s="54"/>
+      <c r="M53" s="60">
         <v>2</v>
       </c>
-      <c r="N53" s="77">
+      <c r="N53" s="58">
         <v>100</v>
       </c>
-      <c r="O53" s="75"/>
-      <c r="P53" s="75"/>
+      <c r="O53" s="56"/>
+      <c r="P53" s="56"/>
     </row>
     <row r="54" spans="11:16" x14ac:dyDescent="0.15">
-      <c r="K54" s="81"/>
-      <c r="L54" s="73"/>
-      <c r="M54" s="79">
+      <c r="K54" s="62"/>
+      <c r="L54" s="54"/>
+      <c r="M54" s="60">
         <v>3</v>
       </c>
-      <c r="N54" s="77">
+      <c r="N54" s="58">
         <v>100</v>
       </c>
-      <c r="O54" s="75"/>
-      <c r="P54" s="75"/>
+      <c r="O54" s="56"/>
+      <c r="P54" s="56"/>
     </row>
     <row r="55" spans="11:16" x14ac:dyDescent="0.15">
-      <c r="L55" s="79">
+      <c r="L55" s="60">
         <v>2</v>
       </c>
-      <c r="M55" s="79">
+      <c r="M55" s="60">
         <v>0</v>
       </c>
-      <c r="N55" s="77">
+      <c r="N55" s="58">
         <v>100</v>
       </c>
-      <c r="O55" s="75"/>
-      <c r="P55" s="75"/>
+      <c r="O55" s="56"/>
+      <c r="P55" s="56"/>
     </row>
     <row r="56" spans="11:16" x14ac:dyDescent="0.15">
-      <c r="L56" s="73"/>
-      <c r="M56" s="79">
+      <c r="L56" s="54"/>
+      <c r="M56" s="60">
         <v>1</v>
       </c>
-      <c r="N56" s="77">
+      <c r="N56" s="58">
         <v>100</v>
       </c>
-      <c r="O56" s="75"/>
-      <c r="P56" s="75"/>
+      <c r="O56" s="56"/>
+      <c r="P56" s="56"/>
     </row>
     <row r="57" spans="11:16" x14ac:dyDescent="0.15">
-      <c r="L57" s="73"/>
-      <c r="M57" s="79">
+      <c r="L57" s="54"/>
+      <c r="M57" s="60">
         <v>2</v>
       </c>
-      <c r="N57" s="77">
+      <c r="N57" s="58">
         <v>100</v>
       </c>
-      <c r="O57" s="75"/>
-      <c r="P57" s="75"/>
+      <c r="O57" s="56"/>
+      <c r="P57" s="56"/>
     </row>
     <row r="58" spans="11:16" x14ac:dyDescent="0.15">
-      <c r="K58" s="81"/>
-      <c r="L58" s="73"/>
-      <c r="M58" s="79">
+      <c r="K58" s="62"/>
+      <c r="L58" s="54"/>
+      <c r="M58" s="60">
         <v>3</v>
       </c>
-      <c r="N58" s="77">
+      <c r="N58" s="58">
         <v>100</v>
       </c>
-      <c r="O58" s="75"/>
-      <c r="P58" s="75"/>
+      <c r="O58" s="56"/>
+      <c r="P58" s="56"/>
     </row>
     <row r="59" spans="11:16" x14ac:dyDescent="0.15">
-      <c r="L59" s="79">
+      <c r="L59" s="60">
         <v>3</v>
       </c>
-      <c r="M59" s="79">
+      <c r="M59" s="60">
         <v>0</v>
       </c>
-      <c r="N59" s="77">
+      <c r="N59" s="58">
         <v>100</v>
       </c>
-      <c r="O59" s="75"/>
-      <c r="P59" s="75"/>
+      <c r="O59" s="56"/>
+      <c r="P59" s="56"/>
     </row>
     <row r="60" spans="11:16" x14ac:dyDescent="0.15">
-      <c r="L60" s="73"/>
-      <c r="M60" s="79">
+      <c r="L60" s="54"/>
+      <c r="M60" s="60">
         <v>1</v>
       </c>
-      <c r="N60" s="77">
+      <c r="N60" s="58">
         <v>100</v>
       </c>
-      <c r="O60" s="75"/>
-      <c r="P60" s="75"/>
+      <c r="O60" s="56"/>
+      <c r="P60" s="56"/>
     </row>
     <row r="61" spans="11:16" x14ac:dyDescent="0.15">
-      <c r="L61" s="73"/>
-      <c r="M61" s="79">
+      <c r="L61" s="54"/>
+      <c r="M61" s="60">
         <v>2</v>
       </c>
-      <c r="N61" s="77">
+      <c r="N61" s="58">
         <v>100</v>
       </c>
-      <c r="O61" s="75"/>
-      <c r="P61" s="75"/>
+      <c r="O61" s="56"/>
+      <c r="P61" s="56"/>
     </row>
     <row r="62" spans="11:16" x14ac:dyDescent="0.15">
-      <c r="K62" s="81"/>
-      <c r="L62" s="73"/>
-      <c r="M62" s="79">
+      <c r="K62" s="62"/>
+      <c r="L62" s="54"/>
+      <c r="M62" s="60">
         <v>3</v>
       </c>
-      <c r="N62" s="77">
+      <c r="N62" s="58">
         <v>100</v>
       </c>
-      <c r="O62" s="75"/>
-      <c r="P62" s="75"/>
+      <c r="O62" s="56"/>
+      <c r="P62" s="56"/>
     </row>
     <row r="63" spans="11:16" x14ac:dyDescent="0.15">
-      <c r="L63" s="79">
+      <c r="L63" s="60">
         <v>4</v>
       </c>
-      <c r="M63" s="79">
+      <c r="M63" s="60">
         <v>0</v>
       </c>
-      <c r="N63" s="77">
+      <c r="N63" s="58">
         <v>100</v>
       </c>
-      <c r="O63" s="75"/>
-      <c r="P63" s="75"/>
+      <c r="O63" s="56"/>
+      <c r="P63" s="56"/>
     </row>
     <row r="64" spans="11:16" x14ac:dyDescent="0.15">
-      <c r="L64" s="73"/>
-      <c r="M64" s="79">
+      <c r="L64" s="54"/>
+      <c r="M64" s="60">
         <v>1</v>
       </c>
-      <c r="N64" s="77">
+      <c r="N64" s="58">
         <v>100</v>
       </c>
-      <c r="O64" s="75"/>
-      <c r="P64" s="75"/>
+      <c r="O64" s="56"/>
+      <c r="P64" s="56"/>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="L65" s="73"/>
-      <c r="M65" s="79">
+      <c r="L65" s="54"/>
+      <c r="M65" s="60">
         <v>2</v>
       </c>
-      <c r="N65" s="77">
+      <c r="N65" s="58">
         <v>100</v>
       </c>
-      <c r="O65" s="75"/>
-      <c r="P65" s="75"/>
+      <c r="O65" s="56"/>
+      <c r="P65" s="56"/>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="K66" s="81"/>
-      <c r="L66" s="73"/>
-      <c r="M66" s="79">
+      <c r="K66" s="62"/>
+      <c r="L66" s="54"/>
+      <c r="M66" s="60">
         <v>3</v>
       </c>
-      <c r="N66" s="77">
+      <c r="N66" s="58">
         <v>100</v>
       </c>
-      <c r="O66" s="75"/>
-      <c r="P66" s="75"/>
+      <c r="O66" s="56"/>
+      <c r="P66" s="56"/>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A67" s="75"/>
-      <c r="B67" s="75"/>
-      <c r="C67" s="75"/>
-      <c r="D67" s="75"/>
-      <c r="E67" s="75"/>
-      <c r="F67" s="75"/>
-      <c r="G67" s="76"/>
-      <c r="H67" s="75"/>
+      <c r="A67" s="56"/>
+      <c r="B67" s="56"/>
+      <c r="C67" s="56"/>
+      <c r="D67" s="56"/>
+      <c r="E67" s="56"/>
+      <c r="F67" s="56"/>
+      <c r="G67" s="57"/>
+      <c r="H67" s="56"/>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A68" s="75"/>
-      <c r="B68" s="75"/>
-      <c r="C68" s="75"/>
-      <c r="D68" s="75"/>
-      <c r="E68" s="75"/>
-      <c r="F68" s="75"/>
-      <c r="G68" s="75"/>
-      <c r="H68" s="75"/>
+      <c r="A68" s="56"/>
+      <c r="B68" s="56"/>
+      <c r="C68" s="56"/>
+      <c r="D68" s="56"/>
+      <c r="E68" s="56"/>
+      <c r="F68" s="56"/>
+      <c r="G68" s="56"/>
+      <c r="H68" s="56"/>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A69" s="75"/>
-      <c r="B69" s="75"/>
-      <c r="C69" s="75"/>
-      <c r="D69" s="75"/>
-      <c r="E69" s="75"/>
-      <c r="F69" s="75"/>
-      <c r="G69" s="75"/>
-      <c r="H69" s="75"/>
+      <c r="A69" s="56"/>
+      <c r="B69" s="56"/>
+      <c r="C69" s="56"/>
+      <c r="D69" s="56"/>
+      <c r="E69" s="56"/>
+      <c r="F69" s="56"/>
+      <c r="G69" s="56"/>
+      <c r="H69" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/개발문서/기능정의서.xlsx
+++ b/개발문서/기능정의서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kopo\Open-Banking-DB-Project\개발문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110C646E-927A-4825-8C28-C77DE7264A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{813F8C06-C76E-4379-8F08-EE340D101DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18225" yWindow="1005" windowWidth="18975" windowHeight="585" tabRatio="706" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1410" windowWidth="15660" windowHeight="585" tabRatio="706" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="메뉴 (2)" sheetId="22" r:id="rId1"/>
@@ -20,12 +20,14 @@
     <sheet name="기능정의서_v최종" sheetId="16" r:id="rId5"/>
     <sheet name="기능개요" sheetId="17" r:id="rId6"/>
     <sheet name="데이터베이스" sheetId="18" r:id="rId7"/>
+    <sheet name="DAO" sheetId="23" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="4">기능정의서_v최종!$A$1:$G$40</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">문서이력관리!$A$1:$E$37</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -2431,6 +2433,90 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2440,37 +2526,25 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2481,87 +2555,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2570,26 +2563,35 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2932,8 +2934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E229CC-C169-4FDA-8FE5-39F64070B38C}">
   <dimension ref="B2:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W27" sqref="W27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3836,12 +3838,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="102"/>
     </row>
     <row r="3" spans="2:5" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4034,15 +4036,15 @@
     </row>
     <row r="2" spans="1:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="77"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="116"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5"/>
@@ -4052,13 +4054,13 @@
       <c r="C3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="78" t="s">
+      <c r="D3" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="80"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="119"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
@@ -4068,13 +4070,13 @@
       <c r="C4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="81">
+      <c r="D4" s="120">
         <v>44351</v>
       </c>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="83"/>
+      <c r="E4" s="121"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="122"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
@@ -4088,19 +4090,19 @@
     </row>
     <row r="6" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5"/>
-      <c r="B6" s="86" t="s">
+      <c r="B6" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="87"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="116" t="s">
+      <c r="C6" s="111"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="113" t="s">
         <v>218</v>
       </c>
-      <c r="F6" s="115"/>
-      <c r="G6" s="84" t="s">
+      <c r="F6" s="112"/>
+      <c r="G6" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="88" t="s">
+      <c r="H6" s="108" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4121,19 +4123,19 @@
       <c r="F7" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="G7" s="85"/>
-      <c r="H7" s="89"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="109"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5"/>
-      <c r="B8" s="122" t="s">
+      <c r="B8" s="98" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="38" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="42"/>
-      <c r="E8" s="108" t="s">
+      <c r="E8" s="86" t="s">
         <v>201</v>
       </c>
       <c r="F8" s="39"/>
@@ -4146,16 +4148,16 @@
     <row r="9" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5"/>
       <c r="B9" s="35"/>
-      <c r="C9" s="93" t="s">
+      <c r="C9" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="94"/>
-      <c r="E9" s="109"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="95" t="s">
+      <c r="D9" s="75"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="76" t="s">
         <v>217</v>
       </c>
-      <c r="H9" s="96"/>
+      <c r="H9" s="77"/>
       <c r="I9" s="12"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -4165,7 +4167,7 @@
         <v>23</v>
       </c>
       <c r="D10" s="43"/>
-      <c r="E10" s="110" t="s">
+      <c r="E10" s="88" t="s">
         <v>201</v>
       </c>
       <c r="F10" s="40"/>
@@ -4177,36 +4179,36 @@
     </row>
     <row r="11" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5"/>
-      <c r="B11" s="122" t="s">
+      <c r="B11" s="98" t="s">
         <v>196</v>
       </c>
-      <c r="C11" s="97" t="s">
+      <c r="C11" s="103" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="111" t="s">
+      <c r="E11" s="89" t="s">
         <v>201</v>
       </c>
       <c r="F11" s="47"/>
-      <c r="G11" s="120" t="s">
+      <c r="G11" s="96" t="s">
         <v>204</v>
       </c>
-      <c r="H11" s="103"/>
+      <c r="H11" s="81"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5"/>
       <c r="B12" s="35"/>
-      <c r="C12" s="98"/>
-      <c r="D12" s="91" t="s">
+      <c r="C12" s="104"/>
+      <c r="D12" s="72" t="s">
         <v>198</v>
       </c>
-      <c r="E12" s="112" t="s">
+      <c r="E12" s="90" t="s">
         <v>201</v>
       </c>
       <c r="F12" s="48"/>
-      <c r="G12" s="119" t="s">
+      <c r="G12" s="95" t="s">
         <v>205</v>
       </c>
       <c r="H12" s="36"/>
@@ -4214,15 +4216,15 @@
     <row r="13" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5"/>
       <c r="B13" s="35"/>
-      <c r="C13" s="99"/>
-      <c r="D13" s="91" t="s">
+      <c r="C13" s="105"/>
+      <c r="D13" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="112" t="s">
+      <c r="E13" s="90" t="s">
         <v>201</v>
       </c>
       <c r="F13" s="48"/>
-      <c r="G13" s="119" t="s">
+      <c r="G13" s="95" t="s">
         <v>206</v>
       </c>
       <c r="H13" s="36"/>
@@ -4230,15 +4232,15 @@
     <row r="14" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5"/>
       <c r="B14" s="35"/>
-      <c r="C14" s="100" t="s">
+      <c r="C14" s="78" t="s">
         <v>74</v>
       </c>
       <c r="D14" s="40"/>
-      <c r="E14" s="112" t="s">
+      <c r="E14" s="90" t="s">
         <v>201</v>
       </c>
       <c r="F14" s="48"/>
-      <c r="G14" s="119" t="s">
+      <c r="G14" s="95" t="s">
         <v>207</v>
       </c>
       <c r="H14" s="36" t="s">
@@ -4248,15 +4250,15 @@
     <row r="15" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5"/>
       <c r="B15" s="35"/>
-      <c r="C15" s="100" t="s">
+      <c r="C15" s="78" t="s">
         <v>73</v>
       </c>
       <c r="D15" s="40"/>
-      <c r="E15" s="113" t="s">
+      <c r="E15" s="91" t="s">
         <v>201</v>
       </c>
       <c r="F15" s="40"/>
-      <c r="G15" s="121" t="s">
+      <c r="G15" s="97" t="s">
         <v>208</v>
       </c>
       <c r="H15" s="51" t="s">
@@ -4266,49 +4268,49 @@
     <row r="16" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="5"/>
       <c r="B16" s="35"/>
-      <c r="C16" s="101" t="s">
+      <c r="C16" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="91"/>
-      <c r="E16" s="112" t="s">
+      <c r="D16" s="72"/>
+      <c r="E16" s="90" t="s">
         <v>201</v>
       </c>
       <c r="F16" s="40"/>
-      <c r="G16" s="117" t="s">
+      <c r="G16" s="93" t="s">
         <v>209</v>
       </c>
-      <c r="H16" s="92"/>
+      <c r="H16" s="73"/>
     </row>
     <row r="17" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
-      <c r="B17" s="104"/>
-      <c r="C17" s="102" t="s">
+      <c r="B17" s="82"/>
+      <c r="C17" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="105"/>
-      <c r="E17" s="114" t="s">
+      <c r="D17" s="83"/>
+      <c r="E17" s="92" t="s">
         <v>201</v>
       </c>
-      <c r="F17" s="106"/>
-      <c r="G17" s="118" t="s">
+      <c r="F17" s="84"/>
+      <c r="G17" s="94" t="s">
         <v>210</v>
       </c>
-      <c r="H17" s="107"/>
+      <c r="H17" s="85"/>
     </row>
     <row r="18" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="5"/>
-      <c r="B18" s="123" t="s">
+      <c r="B18" s="99" t="s">
         <v>197</v>
       </c>
-      <c r="C18" s="101" t="s">
+      <c r="C18" s="79" t="s">
         <v>199</v>
       </c>
-      <c r="D18" s="91"/>
-      <c r="E18" s="112" t="s">
+      <c r="D18" s="72"/>
+      <c r="E18" s="90" t="s">
         <v>201</v>
       </c>
-      <c r="F18" s="91"/>
-      <c r="G18" s="119" t="s">
+      <c r="F18" s="72"/>
+      <c r="G18" s="95" t="s">
         <v>211</v>
       </c>
       <c r="H18" s="36"/>
@@ -4316,15 +4318,15 @@
     <row r="19" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="5"/>
       <c r="B19" s="35"/>
-      <c r="C19" s="100" t="s">
+      <c r="C19" s="78" t="s">
         <v>33</v>
       </c>
       <c r="D19" s="40"/>
-      <c r="E19" s="112" t="s">
+      <c r="E19" s="90" t="s">
         <v>201</v>
       </c>
-      <c r="F19" s="91"/>
-      <c r="G19" s="119" t="s">
+      <c r="F19" s="72"/>
+      <c r="G19" s="95" t="s">
         <v>212</v>
       </c>
       <c r="H19" s="36"/>
@@ -4332,15 +4334,15 @@
     <row r="20" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="5"/>
       <c r="B20" s="35"/>
-      <c r="C20" s="100" t="s">
+      <c r="C20" s="78" t="s">
         <v>34</v>
       </c>
       <c r="D20" s="40"/>
-      <c r="E20" s="112" t="s">
+      <c r="E20" s="90" t="s">
         <v>201</v>
       </c>
-      <c r="F20" s="91"/>
-      <c r="G20" s="119" t="s">
+      <c r="F20" s="72"/>
+      <c r="G20" s="95" t="s">
         <v>213</v>
       </c>
       <c r="H20" s="36" t="s">
@@ -4350,15 +4352,15 @@
     <row r="21" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="37"/>
-      <c r="C21" s="102" t="s">
+      <c r="C21" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="106"/>
-      <c r="E21" s="114" t="s">
+      <c r="D21" s="84"/>
+      <c r="E21" s="92" t="s">
         <v>201</v>
       </c>
       <c r="F21" s="49"/>
-      <c r="G21" s="118" t="s">
+      <c r="G21" s="94" t="s">
         <v>214</v>
       </c>
       <c r="H21" s="34" t="s">
@@ -4430,14 +4432,14 @@
     <row r="41" spans="1:1" ht="75.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:F6"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="D3:H3"/>
     <mergeCell ref="D4:H4"/>
     <mergeCell ref="C11:C13"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:H7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.51181102362204722" footer="0"/>
@@ -4472,10 +4474,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="F1" s="84" t="s">
+      <c r="F1" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="88" t="s">
+      <c r="G1" s="108" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4495,8 +4497,8 @@
       <c r="E2" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="85"/>
-      <c r="G2" s="89"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="109"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
@@ -4891,10 +4893,10 @@
       <c r="A7" t="s">
         <v>92</v>
       </c>
-      <c r="F7" s="90" t="s">
+      <c r="F7" s="123" t="s">
         <v>138</v>
       </c>
-      <c r="G7" s="90"/>
+      <c r="G7" s="123"/>
       <c r="I7" s="57"/>
       <c r="J7" s="57"/>
       <c r="K7" s="57"/>
@@ -5688,4 +5690,19 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08D15519-8849-4CA5-A0EC-8BA4400BE6F0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>